--- a/assets/data/LanguageConfig.xlsx
+++ b/assets/data/LanguageConfig.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\workspace\Zulaman-WE\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\Documents\Warcraft III\Maps\Zulaman-WE\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D54946C-4CB5-43AB-91A0-8709FC441565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AE25F6-7C63-4CD1-8475-A75A586697A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Item" sheetId="1" r:id="rId1"/>
+    <sheet name="Attr" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="687">
   <si>
     <t>语言Key</t>
   </si>
@@ -1206,24 +1207,961 @@
   </si>
   <si>
     <t>lkey_lore_thunderfury_blade_of_windseeker</t>
+  </si>
+  <si>
+    <t>On Attack: 15% chance to cast Death Coil</t>
+  </si>
+  <si>
+    <t>Arthas Corruption set</t>
+  </si>
+  <si>
+    <t>Rise of Zandalari set</t>
+  </si>
+  <si>
+    <t>lkey_attr_str</t>
+  </si>
+  <si>
+    <t>lkey_attr_strpl</t>
+  </si>
+  <si>
+    <t>lkey_attr_agi</t>
+  </si>
+  <si>
+    <t>lkey_attr_int</t>
+  </si>
+  <si>
+    <t>lkey_attr_allstat</t>
+  </si>
+  <si>
+    <t>lkey_attr_hp</t>
+  </si>
+  <si>
+    <t>lkey_attr_hppct</t>
+  </si>
+  <si>
+    <t>lkey_attr_hppl</t>
+  </si>
+  <si>
+    <t>lkey_attr_mp</t>
+  </si>
+  <si>
+    <t>lkey_attr_ap</t>
+  </si>
+  <si>
+    <t>lkey_attr_appl</t>
+  </si>
+  <si>
+    <t>lkey_attr_crit</t>
+  </si>
+  <si>
+    <t>lkey_attr_ias</t>
+  </si>
+  <si>
+    <t>lkey_attr_sp</t>
+  </si>
+  <si>
+    <t>lkey_attr_scrit</t>
+  </si>
+  <si>
+    <t>lkey_attr_shaste</t>
+  </si>
+  <si>
+    <t>lkey_attr_def</t>
+  </si>
+  <si>
+    <t>lkey_attr_defpl</t>
+  </si>
+  <si>
+    <t>lkey_attr_br</t>
+  </si>
+  <si>
+    <t>lkey_attr_bp</t>
+  </si>
+  <si>
+    <t>lkey_attr_dodge</t>
+  </si>
+  <si>
+    <t>lkey_attr_dr</t>
+  </si>
+  <si>
+    <t>lkey_attr_mdr</t>
+  </si>
+  <si>
+    <t>lkey_attr_amp</t>
+  </si>
+  <si>
+    <t>lkey_attr_hamp</t>
+  </si>
+  <si>
+    <t>lkey_attr_mreg</t>
+  </si>
+  <si>
+    <t>lkey_attr_hreg</t>
+  </si>
+  <si>
+    <t>lkey_attr_hlost</t>
+  </si>
+  <si>
+    <t>lkey_attr_ms</t>
+  </si>
+  <si>
+    <t>lkey_attr_mspl</t>
+  </si>
+  <si>
+    <t>lkey_attr_lp</t>
+  </si>
+  <si>
+    <t>lkey_attr_atk_ml</t>
+  </si>
+  <si>
+    <t>lkey_attr_atk_ll</t>
+  </si>
+  <si>
+    <t>lkey_attr_atk_llml</t>
+  </si>
+  <si>
+    <t>lkey_attr_atk_md</t>
+  </si>
+  <si>
+    <t>lkey_attr_atk_mdk</t>
+  </si>
+  <si>
+    <t>lkey_attr_rg_oneshot</t>
+  </si>
+  <si>
+    <t>lkey_attr_mcvt</t>
+  </si>
+  <si>
+    <t>lkey_attr_pl_shock</t>
+  </si>
+  <si>
+    <t>lkey_attr_pr_shield</t>
+  </si>
+  <si>
+    <t>lkey_attr_pl_light</t>
+  </si>
+  <si>
+    <t>lkey_attr_dt_mregen</t>
+  </si>
+  <si>
+    <t>lkey_attr_use_tp</t>
+  </si>
+  <si>
+    <t>lkey_attr_bm_valor</t>
+  </si>
+  <si>
+    <t>lkey_attr_rg_rush</t>
+  </si>
+  <si>
+    <t>lkey_attr_crkiller</t>
+  </si>
+  <si>
+    <t>lkey_attr_kg_regrcd</t>
+  </si>
+  <si>
+    <t>lkey_attr_leechaura</t>
+  </si>
+  <si>
+    <t>lkey_attr_pr_pohdef</t>
+  </si>
+  <si>
+    <t>lkey_attr_dr_maxhp</t>
+  </si>
+  <si>
+    <t>lkey_attr_ct_pain</t>
+  </si>
+  <si>
+    <t>lkey_attr_bd_shield</t>
+  </si>
+  <si>
+    <t>lkey_attr_rg_paralz</t>
+  </si>
+  <si>
+    <t>lkey_attr_dr_cdr</t>
+  </si>
+  <si>
+    <t>lkey_attr_sm_lash</t>
+  </si>
+  <si>
+    <t>lkey_attr_dk_arrow</t>
+  </si>
+  <si>
+    <t>lkey_attr_mg_fdmg</t>
+  </si>
+  <si>
+    <t>lkey_attr_mg_blz</t>
+  </si>
+  <si>
+    <t>lkey_attr_atk_cthun</t>
+  </si>
+  <si>
+    <t>lkey_attr_atk_wf</t>
+  </si>
+  <si>
+    <t>lkey_attr_atk_lion</t>
+  </si>
+  <si>
+    <t>lkey_attr_atk_moonwave</t>
+  </si>
+  <si>
+    <t>lkey_attr_atk_poisnova</t>
+  </si>
+  <si>
+    <t>lkey_attr_atk_coil</t>
+  </si>
+  <si>
+    <t>lkey_attr_atk_bleed</t>
+  </si>
+  <si>
+    <t>lkey_attr_atk_mdc</t>
+  </si>
+  <si>
+    <t>lkey_attr_atk_stun</t>
+  </si>
+  <si>
+    <t>lkey_attr_atk_crit</t>
+  </si>
+  <si>
+    <t>lkey_attr_atk_amp</t>
+  </si>
+  <si>
+    <t>lkey_attr_atk_mortal</t>
+  </si>
+  <si>
+    <t>lkey_attr_atk_miss</t>
+  </si>
+  <si>
+    <t>lkey_attr_atk_ddef</t>
+  </si>
+  <si>
+    <t>lkey_attr_atk_das</t>
+  </si>
+  <si>
+    <t>lkey_attr_atk_dms</t>
+  </si>
+  <si>
+    <t>lkey_attr_atk_weak</t>
+  </si>
+  <si>
+    <t>lkey_attr_3atk_moonexp</t>
+  </si>
+  <si>
+    <t>lkey_attr_md_mregen</t>
+  </si>
+  <si>
+    <t>lkey_attr_md_poison</t>
+  </si>
+  <si>
+    <t>lkey_attr_md_chain</t>
+  </si>
+  <si>
+    <t>lkey_attr_use_int</t>
+  </si>
+  <si>
+    <t>lkey_attr_md_arcane</t>
+  </si>
+  <si>
+    <t>lkey_attr_mdc_arcane</t>
+  </si>
+  <si>
+    <t>lkey_attr_heal_holy</t>
+  </si>
+  <si>
+    <t>lkey_attr_atked_weak</t>
+  </si>
+  <si>
+    <t>lkey_attr_aura_convic</t>
+  </si>
+  <si>
+    <t>lkey_attr_aura_medita</t>
+  </si>
+  <si>
+    <t>lkey_attr_aura_warsong</t>
+  </si>
+  <si>
+    <t>lkey_attr_aura_unholy</t>
+  </si>
+  <si>
+    <t>lkey_attr_use_battle</t>
+  </si>
+  <si>
+    <t>lkey_attr_use_mregen</t>
+  </si>
+  <si>
+    <t>lkey_attr_use_hregen</t>
+  </si>
+  <si>
+    <t>lkey_attr_use_voodoo</t>
+  </si>
+  <si>
+    <t>lkey_attr_use_sp</t>
+  </si>
+  <si>
+    <t>lkey_attr_use_dodge</t>
+  </si>
+  <si>
+    <t>lkey_attr_use_ms</t>
+  </si>
+  <si>
+    <t>lkey_attr_use_cthun</t>
+  </si>
+  <si>
+    <t>lkey_attr_use_holyheal</t>
+  </si>
+  <si>
+    <t>lkey_attr_set_arthas</t>
+  </si>
+  <si>
+    <t>lkey_attr_set_zandalari</t>
+  </si>
+  <si>
+    <t>+{0}力量</t>
+  </si>
+  <si>
+    <t>+{0}力量/级</t>
+  </si>
+  <si>
+    <t>+{0}敏捷</t>
+  </si>
+  <si>
+    <t>+{0}智力</t>
+  </si>
+  <si>
+    <t>+{0}全属性</t>
+  </si>
+  <si>
+    <t>+{0}生命</t>
+  </si>
+  <si>
+    <t>+{0}生命/级</t>
+  </si>
+  <si>
+    <t>+{0}法力</t>
+  </si>
+  <si>
+    <t>+{0}攻击</t>
+  </si>
+  <si>
+    <t>+{0}攻击/级</t>
+  </si>
+  <si>
+    <t>+{0}法术强度</t>
+  </si>
+  <si>
+    <t>+{0}护甲</t>
+  </si>
+  <si>
+    <t>+{0}护甲/级</t>
+  </si>
+  <si>
+    <t>+{0}格挡值</t>
+  </si>
+  <si>
+    <t>-{0}受到的所有伤害</t>
+  </si>
+  <si>
+    <t>-{0}受到的法术伤害</t>
+  </si>
+  <si>
+    <t>恢复{0}法力/秒</t>
+  </si>
+  <si>
+    <t>恢复{0}生命/秒</t>
+  </si>
+  <si>
+    <t>+{0}移动速度</t>
+  </si>
+  <si>
+    <t>+{0}移动速度/级</t>
+  </si>
+  <si>
+    <t>|cff87ceeb+{0}生命吸取|r</t>
+  </si>
+  <si>
+    <t>|cff87ceeb+{0}生命和法力吸取|r</t>
+  </si>
+  <si>
+    <t>|cff87ceeb造成 {0}额外法术伤害/击|r</t>
+  </si>
+  <si>
+    <t>|cff87ceeb造成 {0}额外法术伤害/击，目标生命越少伤害越高|r</t>
+  </si>
+  <si>
+    <t>|cff87ceeb秒杀生命值少于你的目标{0}|r</t>
+  </si>
+  <si>
+    <t>|cff87ceeb普通攻击转化为法术攻击{0}|r</t>
+  </si>
+  <si>
+    <t>|cff87ceeb神圣冲击必定造成极效治疗{0}|r</t>
+  </si>
+  <si>
+    <t>|cff87ceeb移除护盾的灵魂虚弱效果{0}|r</t>
+  </si>
+  <si>
+    <t>|cff87ceeb圣光闪现可以驱散一个有害法术效果{0}|r</t>
+  </si>
+  <si>
+    <t>|cff87ceeb受伤的{0}转化为法力|r</t>
+  </si>
+  <si>
+    <t>|cff87ceeb使用：传送到一个友军位置{0}|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33产生{0}更多的勇气点数|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33邪恶攻击和剔骨对低于30%生命的目标造成{0}额外伤害|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33对非英雄目标造成{0}额外伤害|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33减少瞬发愈合的冷却时间{0}秒(唯一)|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33每秒从附近敌人吸收{0}点生命|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33治疗祷言提高{0}点护甲|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33求生本能可以提供{0}额外的生命和生命上限|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33骨髓榨取可以延长痛的持续时间{0}秒|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33辛多雷之盾提供{0}额外免伤，并嘲讽附近所有目标|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33邪恶攻击有{0}概率麻痹敌人，降低20%法术急速并获得一个额外连击点|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33降低生存本能冷却时间{0}秒(唯一)|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33风暴鞭笞有{0}额外概率冷却地震术(唯一)|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33黑箭数量增加{0}(唯一)|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33冰系法术伤害增加{0}|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33{0}概率对暴风雪击中的目标立即施放寒冰箭|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33攻击时：每击增加1%攻速，最多叠加{0}，层，持续3秒|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33攻击时：{0}概率击退目标|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33攻击时：{0}概率增加30%攻速，持续5秒|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33攻击时：10%概率消耗5%法力，对直线目标造成{0}魔法伤害|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33攻击时：15%概率施展剧毒新星，对600范围内敌人造成{0}持续魔法伤害|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33攻击时：15%概率施展死亡缠绕{0}|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33攻击时：20%概率在成{0}流血伤害|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33攻击时：25%概率在成{0}物理伤害|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33攻击时：10%概率昏迷目标{0}秒|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33攻击时：{0}概率提升100%暴击|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33攻击时：目标受到{0}额外伤害|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33攻击时：目标受到的治疗降低{0}|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33攻击时：目标命中率降低{0}|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33攻击时：目标护甲降低{0}|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33攻击时：目标攻速降低{0}|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33攻击时：目标移动速度降低{0}|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33攻击时：目标造成的伤害和治疗效果降低{0}|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33每第三次攻击：消耗5%法力，对附近所有目标造成{0}魔法伤害|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33造成魔法伤害或治疗效果：1%概率恢复{0}法力|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33造成魔法伤害：10%概率令目标中毒，造成{0}持续魔法伤害|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33造成伤害：10%概率对目标施展闪电链，造成{0}魔法伤害|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33造成魔法伤害：15%概率提高{0}智力，持续15秒|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33造成魔法伤害：10%概率施展秘法飞弹，造成{0}魔法伤害|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33魔法暴击：充能1层秘法，3次充能之后会朝目标释放，造成{0}魔法伤害|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33受到治疗：充能1层神圣能量，最多叠加{0}层|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33受到攻击：降低目标的攻击{0}|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33赋予信念光环：600范围内的敌人受到{0}额外魔法伤害|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33赋予冥想光环：600范围内的友军每秒恢复{0}点法力|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33赋予战歌光环：600范围内的友军造成{0}更多的伤害和治疗，受到的治疗效果提升10%|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33赋予邪恶光环：600范围内的友军每秒恢复{0}点生命|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33使用：战斗命令，提高900范围内友军{0}点最大生命，持续75秒|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33使用：恢复{0}法力|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33使用：恢复{0}点生命|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33使用：对范围内的敌人造成{0}持续的魔法伤害|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33使用：提升法术强度{0}点，持续15秒|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33使用：提升30%躲闪，持续{0}秒|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33使用：提升300移动速度，持续{0}秒。有可能失败。|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33使用：增加100%攻速，受到{0}额外伤害(唯一)|r</t>
+  </si>
+  <si>
+    <t>|cff33ff33使用：释放所有神圣能量来治疗自己，每点能量治疗{0}点生命|r</t>
+  </si>
+  <si>
+    <t>阿尔萨斯的堕落{0}|r</t>
+  </si>
+  <si>
+    <t>赞达拉的崛起{0}|r</t>
+  </si>
+  <si>
+    <t>+{0} Strength</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0} Agility</t>
+  </si>
+  <si>
+    <t>+{0} Intelligence</t>
+  </si>
+  <si>
+    <t>+{0} Max HP</t>
+  </si>
+  <si>
+    <t>+{0} Max MP</t>
+  </si>
+  <si>
+    <t>+{0} Armor</t>
+  </si>
+  <si>
+    <t>+{0} Life stolen per hit</t>
+  </si>
+  <si>
+    <t>+{0} Life and mana stolen per hit</t>
+  </si>
+  <si>
+    <t>Deals {0} extra magical damage per hit</t>
+  </si>
+  <si>
+    <t>Deals {0} extra magical damage per hit, scaled up by target HP lost</t>
+  </si>
+  <si>
+    <t>One-shot target when it's HP is less than yours{0}</t>
+  </si>
+  <si>
+    <t>Converts your normal attacks into magical damage{0}</t>
+  </si>
+  <si>
+    <t>Holy Shock always deals critical healing{0}</t>
+  </si>
+  <si>
+    <t>Removes weakness effect of Shield{0}</t>
+  </si>
+  <si>
+    <t>Flash Light dispels one debuff from target{0}</t>
+  </si>
+  <si>
+    <t>Regens MP from {0} of the damage taken</t>
+  </si>
+  <si>
+    <t>Use: Teleports to an ally{0}</t>
+  </si>
+  <si>
+    <t>Regenerates {0} more valor points</t>
+  </si>
+  <si>
+    <t>Sinister Strike and Eviscerate deal {0} extra damage to target below 30% max HP</t>
+  </si>
+  <si>
+    <t>Deals {0} extra damage to non-hero targets</t>
+  </si>
+  <si>
+    <t>Reduce cooldown of Instant Regrowth by {0} seconds (unique)</t>
+  </si>
+  <si>
+    <t>Absorb {0} HP from all enemies nearby every second</t>
+  </si>
+  <si>
+    <t>Prayer of healing increases armor of target by {0}</t>
+  </si>
+  <si>
+    <t>Survival Instincts provides {0} extra healing and max HP</t>
+  </si>
+  <si>
+    <t>Marrow Squeeze extends the Pain on target by {0} seconds</t>
+  </si>
+  <si>
+    <t>Shield of Sin'dorei provides {0} extra damage reduction, and forces all nearby enemies to attack you</t>
+  </si>
+  <si>
+    <t>Sinister Strike has a {0} chance to paralyze target, reduce target spell haste by 20% and gain an extra combo point</t>
+  </si>
+  <si>
+    <t>Reduce cooldown of Survival Instincts by {0} seconds (unique)</t>
+  </si>
+  <si>
+    <t>Storm Lash has {0} extra chance to cooldown Earth Shock (unique)</t>
+  </si>
+  <si>
+    <t>Number of Dark Arrows increased by {0} (unique)</t>
+  </si>
+  <si>
+    <t>Increase ice spell damage by {0}</t>
+  </si>
+  <si>
+    <t>{0} chance to cast an instant Frost Bolt to targets damaged by Blizzard</t>
+  </si>
+  <si>
+    <t>On Attack: Increase attack speed by 1% per attack, stacks up to {0}, lasts for 3 seconds</t>
+  </si>
+  <si>
+    <t>On Attack: {0} chance to knock back target</t>
+  </si>
+  <si>
+    <t>On Attack: {0} chance to increase 30% attack speed, lasts for 5 seconds</t>
+  </si>
+  <si>
+    <t>On Attack: 10% chance to consume 5% of max MP, deals {0} magical damage to all enemies in a row</t>
+  </si>
+  <si>
+    <t>On Attack: 15% chance to cast poison nova, dealing {0} magical damage over time to all enemies within 600 yards</t>
+  </si>
+  <si>
+    <t>On Attack: 20% chance to deal {0} bleed damage</t>
+  </si>
+  <si>
+    <t>On Attack: 25% chance to deal {0} physical damage</t>
+  </si>
+  <si>
+    <t>On Attack: 10% chance to stun target for {0} seconds</t>
+  </si>
+  <si>
+    <t>On Attack: {0} chance to increase 100% attack critical chance</t>
+  </si>
+  <si>
+    <t>On Attack: Target takes {0} extra damage</t>
+  </si>
+  <si>
+    <t>On Attack: Decrease target healing taken by {0}</t>
+  </si>
+  <si>
+    <t>On Attack: Decrease target attack accuracy by {0}</t>
+  </si>
+  <si>
+    <t>On Attack: Decrease target armor by {0}</t>
+  </si>
+  <si>
+    <t>On Attack: Decrease target attack speed by {0}</t>
+  </si>
+  <si>
+    <t>On Attack: Decrease target movement speed by {0}</t>
+  </si>
+  <si>
+    <t>On Attack: Decrease target damage and healing dealt by {0}</t>
+  </si>
+  <si>
+    <t>Every Third Attack: Consumes 5% of max MP, deals {0} magical damage to all enemies nearby</t>
+  </si>
+  <si>
+    <t>Dealing Magical Damage or Healing: 1% chance to regen {0} MP</t>
+  </si>
+  <si>
+    <t>Dealing Magical Damage: 10% chance to poison target, dealing {0} magical damage over time</t>
+  </si>
+  <si>
+    <t>Dealing Damage: 10% chance to cast Chain Lightning to target, dealing {0} magical damage</t>
+  </si>
+  <si>
+    <t>Dealing Magical Damage: 15% chance to increase intelligence by {0}, lasts for 15 seconds</t>
+  </si>
+  <si>
+    <t>Dealing Magical Damage: 10% chance to cast Arcane Missile, dealing {0} magical damage</t>
+  </si>
+  <si>
+    <t>Magical Damage Critical: Charges with arcane power. All arcane power will be released automatically after 3 stacks, dealing {0} magical damage to target</t>
+  </si>
+  <si>
+    <t>On Healed: Charges 1 holy power, stacks up to {0} points</t>
+  </si>
+  <si>
+    <t>On Attacked: Decreases attacker's attack power by {0}</t>
+  </si>
+  <si>
+    <t>Grant Aura of Conviction: All enemies within 600 yards take {0} more magical damage</t>
+  </si>
+  <si>
+    <t>Grant Aura of Meditation: All allies within 600 yards regen {0} MP per second</t>
+  </si>
+  <si>
+    <t>Grant Aura of Warsong: All allies deal {0} more damage and healing, take 10% more healing within 600 yards</t>
+  </si>
+  <si>
+    <t>Grant Aura of Unholy: All allies within 600 yards regen {0} HP per second</t>
+  </si>
+  <si>
+    <t>Use: Battle Orders, increases {0} max HP to all allies within 900 yards, lasts for 75 seconds</t>
+  </si>
+  <si>
+    <t>Use: Regens {0} MP</t>
+  </si>
+  <si>
+    <t>Use: Regens {0} HP</t>
+  </si>
+  <si>
+    <t>Use: Deals {0} magical damage to all enemies within range over time</t>
+  </si>
+  <si>
+    <t>Use: Increase spell power by {0}, lasts for 15 seconds</t>
+  </si>
+  <si>
+    <t>Use: Increase dodge chance by 30%, lasts for {0} seconds</t>
+  </si>
+  <si>
+    <t>Use: Increase movement speed by 300, lasts for {0} seconds. Possible failures.</t>
+  </si>
+  <si>
+    <t>Use: Increase attack speed by 100%, take {0} extra damage (unique)</t>
+  </si>
+  <si>
+    <t>Use: Release all holy power to heal yourself, each point heals {0} HP</t>
+  </si>
+  <si>
+    <t>+{0}% Max HP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0}%生命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0}%攻速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0}%暴击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0} Attack Power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0}% Attack Critical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0}% Attack Speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0} Spell Power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0}% Spell Critical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0}% Spell Haste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0}%法术暴击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0}%法术急速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0} Strength/Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0} All Stats</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0} Max HP/Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0} Attack Power/Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0} Armor/Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0}% Block Chance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0}%格挡率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0} Block Points</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0}% Dodge Chance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0}%闪避</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-{0} All Damage Taken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-{0} Magical Damage Taken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0}% Damage And Healing Dealt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0}%伤害和治疗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0}%受到的治疗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0}% Healing Taken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regen {0} MP Per Second</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regen {0} HP Per Second</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lost {0} HP Per Second During Combat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中流失{0}生命/秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0} Movement Speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0} Movement Speed/Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improve Item |cff33ff33Special Power|r + {0}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增强物品|cff33ff33特效|r+{0}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0}% Mana Stolen Per Hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>|cff87ceeb+{0}%法力吸取|r</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1236,7 +2174,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,10 +2191,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1539,19 +2479,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>258</v>
       </c>
@@ -1565,7 +2506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>381</v>
       </c>
@@ -1579,7 +2520,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>379</v>
       </c>
@@ -1587,7 +2528,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +2542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>261</v>
       </c>
@@ -1616,7 +2557,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>262</v>
       </c>
@@ -1631,7 +2572,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>263</v>
       </c>
@@ -1646,7 +2587,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>264</v>
       </c>
@@ -1661,7 +2602,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>265</v>
       </c>
@@ -1676,7 +2617,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>266</v>
       </c>
@@ -1691,7 +2632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>267</v>
       </c>
@@ -1706,7 +2647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>268</v>
       </c>
@@ -1721,7 +2662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>269</v>
       </c>
@@ -1736,7 +2677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>270</v>
       </c>
@@ -1751,7 +2692,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>271</v>
       </c>
@@ -1766,7 +2707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>272</v>
       </c>
@@ -1781,7 +2722,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>273</v>
       </c>
@@ -1796,7 +2737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>274</v>
       </c>
@@ -1811,7 +2752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>275</v>
       </c>
@@ -1826,7 +2767,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>276</v>
       </c>
@@ -1841,7 +2782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>277</v>
       </c>
@@ -1856,7 +2797,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>278</v>
       </c>
@@ -1871,7 +2812,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>279</v>
       </c>
@@ -1886,7 +2827,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>280</v>
       </c>
@@ -1901,7 +2842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>281</v>
       </c>
@@ -1916,7 +2857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>282</v>
       </c>
@@ -1931,7 +2872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>283</v>
       </c>
@@ -1946,7 +2887,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>284</v>
       </c>
@@ -1961,7 +2902,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>383</v>
       </c>
@@ -1976,7 +2917,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>285</v>
       </c>
@@ -1991,7 +2932,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>286</v>
       </c>
@@ -2006,7 +2947,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>287</v>
       </c>
@@ -2021,7 +2962,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>288</v>
       </c>
@@ -2036,7 +2977,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>289</v>
       </c>
@@ -2051,7 +2992,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>382</v>
       </c>
@@ -2066,7 +3007,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>290</v>
       </c>
@@ -2081,7 +3022,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>291</v>
       </c>
@@ -2096,7 +3037,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>292</v>
       </c>
@@ -2111,7 +3052,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>293</v>
       </c>
@@ -2126,7 +3067,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>294</v>
       </c>
@@ -2141,7 +3082,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>295</v>
       </c>
@@ -2156,7 +3097,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>385</v>
       </c>
@@ -2171,7 +3112,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>384</v>
       </c>
@@ -2186,7 +3127,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>296</v>
       </c>
@@ -2201,7 +3142,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>297</v>
       </c>
@@ -2216,7 +3157,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>298</v>
       </c>
@@ -2231,7 +3172,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>299</v>
       </c>
@@ -2246,7 +3187,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>300</v>
       </c>
@@ -2261,7 +3202,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>301</v>
       </c>
@@ -2276,7 +3217,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>302</v>
       </c>
@@ -2291,7 +3232,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>303</v>
       </c>
@@ -2306,7 +3247,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>304</v>
       </c>
@@ -2321,7 +3262,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>305</v>
       </c>
@@ -2336,7 +3277,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>306</v>
       </c>
@@ -2351,7 +3292,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>307</v>
       </c>
@@ -2366,7 +3307,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>308</v>
       </c>
@@ -2381,7 +3322,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>309</v>
       </c>
@@ -2396,7 +3337,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>310</v>
       </c>
@@ -2411,7 +3352,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>311</v>
       </c>
@@ -2426,7 +3367,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>312</v>
       </c>
@@ -2441,7 +3382,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>313</v>
       </c>
@@ -2456,7 +3397,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>314</v>
       </c>
@@ -2471,7 +3412,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>315</v>
       </c>
@@ -2486,7 +3427,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>316</v>
       </c>
@@ -2501,7 +3442,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>317</v>
       </c>
@@ -2516,7 +3457,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>318</v>
       </c>
@@ -2531,7 +3472,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>319</v>
       </c>
@@ -2546,7 +3487,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>320</v>
       </c>
@@ -2561,7 +3502,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>321</v>
       </c>
@@ -2576,7 +3517,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>322</v>
       </c>
@@ -2591,7 +3532,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>323</v>
       </c>
@@ -2606,7 +3547,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>324</v>
       </c>
@@ -2621,7 +3562,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>325</v>
       </c>
@@ -2636,7 +3577,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>326</v>
       </c>
@@ -2651,7 +3592,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>327</v>
       </c>
@@ -2666,7 +3607,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>328</v>
       </c>
@@ -2681,7 +3622,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>329</v>
       </c>
@@ -2696,7 +3637,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>330</v>
       </c>
@@ -2711,7 +3652,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>386</v>
       </c>
@@ -2726,7 +3667,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>331</v>
       </c>
@@ -2741,7 +3682,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>332</v>
       </c>
@@ -2756,7 +3697,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>333</v>
       </c>
@@ -2771,7 +3712,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>334</v>
       </c>
@@ -2786,7 +3727,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>335</v>
       </c>
@@ -2801,7 +3742,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>336</v>
       </c>
@@ -2816,7 +3757,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>337</v>
       </c>
@@ -2831,7 +3772,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>388</v>
       </c>
@@ -2846,7 +3787,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>338</v>
       </c>
@@ -2861,7 +3802,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>339</v>
       </c>
@@ -2876,7 +3817,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>387</v>
       </c>
@@ -2891,7 +3832,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>340</v>
       </c>
@@ -2906,7 +3847,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>341</v>
       </c>
@@ -2921,7 +3862,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>342</v>
       </c>
@@ -2936,7 +3877,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>343</v>
       </c>
@@ -2951,7 +3892,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>344</v>
       </c>
@@ -2966,7 +3907,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>345</v>
       </c>
@@ -2981,7 +3922,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>346</v>
       </c>
@@ -2996,7 +3937,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>347</v>
       </c>
@@ -3011,7 +3952,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>348</v>
       </c>
@@ -3026,7 +3967,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>349</v>
       </c>
@@ -3041,7 +3982,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>350</v>
       </c>
@@ -3056,7 +3997,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>351</v>
       </c>
@@ -3071,7 +4012,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>352</v>
       </c>
@@ -3086,7 +4027,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>353</v>
       </c>
@@ -3101,7 +4042,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>354</v>
       </c>
@@ -3116,7 +4057,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>355</v>
       </c>
@@ -3131,7 +4072,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>356</v>
       </c>
@@ -3146,7 +4087,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>357</v>
       </c>
@@ -3161,7 +4102,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>358</v>
       </c>
@@ -3176,7 +4117,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>359</v>
       </c>
@@ -3191,7 +4132,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>360</v>
       </c>
@@ -3206,7 +4147,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>361</v>
       </c>
@@ -3221,7 +4162,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>362</v>
       </c>
@@ -3236,7 +4177,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>363</v>
       </c>
@@ -3251,7 +4192,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>364</v>
       </c>
@@ -3266,7 +4207,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>365</v>
       </c>
@@ -3281,7 +4222,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>366</v>
       </c>
@@ -3296,7 +4237,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>367</v>
       </c>
@@ -3311,7 +4252,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>368</v>
       </c>
@@ -3326,7 +4267,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>369</v>
       </c>
@@ -3341,7 +4282,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>370</v>
       </c>
@@ -3356,7 +4297,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>371</v>
       </c>
@@ -3371,7 +4312,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>372</v>
       </c>
@@ -3386,7 +4327,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>373</v>
       </c>
@@ -3401,7 +4342,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>374</v>
       </c>
@@ -3416,7 +4357,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>389</v>
       </c>
@@ -3431,7 +4372,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>375</v>
       </c>
@@ -3446,7 +4387,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>376</v>
       </c>
@@ -3461,7 +4402,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>377</v>
       </c>
@@ -3476,7 +4417,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>378</v>
       </c>
@@ -3492,6 +4433,1565 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9DF4C1-75AE-4DFD-A39E-52C4C78C52C6}">
+  <dimension ref="A1:D103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="138.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="87.25" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B5">
+        <f>ROW()+995</f>
+        <v>1000</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B69" si="0">ROW()+995</f>
+        <v>1001</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1002</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1003</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1004</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1005</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1006</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1007</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>401</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1008</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>402</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1009</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1010</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>404</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1011</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>405</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1012</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>406</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1013</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>407</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1014</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>408</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1015</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>409</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1016</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>410</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1017</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>411</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1018</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>412</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1019</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>413</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1020</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>414</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1021</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>415</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>1022</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>416</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1023</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>417</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>418</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>1025</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>419</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>1026</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>420</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>1027</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>421</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>1028</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>422</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>1029</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>423</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>1030</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>424</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>1031</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>425</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>1032</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>426</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>1033</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>427</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>1034</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>428</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>1035</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>429</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>1036</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>430</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>1037</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>431</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>1038</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>432</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>1039</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>433</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>1040</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>434</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>1041</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>435</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>1042</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>436</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>1043</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>437</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>1044</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>438</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>1045</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>439</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>1046</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>440</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>1047</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>441</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>1048</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>442</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>1049</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>443</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>444</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>1051</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>445</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>1052</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>446</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>1053</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>447</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>1054</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>448</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>1055</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>449</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>1056</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>450</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>1057</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>451</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>1058</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>452</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>1059</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>453</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>1060</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>454</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>1061</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>455</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>1062</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>456</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>1063</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>457</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="0"/>
+        <v>1064</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>458</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ref="B70:B103" si="1">ROW()+995</f>
+        <v>1065</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>459</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>1066</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>460</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>1067</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>461</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>1068</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>462</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="1"/>
+        <v>1069</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>463</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="1"/>
+        <v>1070</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>464</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>1071</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>465</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="1"/>
+        <v>1072</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>466</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="1"/>
+        <v>1073</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>467</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="1"/>
+        <v>1074</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="1"/>
+        <v>1075</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>469</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>1076</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>470</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="1"/>
+        <v>1077</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>471</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="1"/>
+        <v>1078</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>472</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>1079</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>473</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="1"/>
+        <v>1080</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>474</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="1"/>
+        <v>1081</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>475</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="1"/>
+        <v>1082</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>476</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="1"/>
+        <v>1083</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>477</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="1"/>
+        <v>1084</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>478</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="1"/>
+        <v>1085</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>479</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="1"/>
+        <v>1086</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>480</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="1"/>
+        <v>1087</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>481</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="1"/>
+        <v>1088</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>482</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="1"/>
+        <v>1089</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>483</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="1"/>
+        <v>1090</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>484</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="1"/>
+        <v>1091</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>485</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="1"/>
+        <v>1092</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>486</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="1"/>
+        <v>1093</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>487</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="1"/>
+        <v>1094</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>488</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="1"/>
+        <v>1095</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>489</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="1"/>
+        <v>1096</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>490</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="1"/>
+        <v>1097</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>491</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="1"/>
+        <v>1098</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/assets/data/LanguageConfig.xlsx
+++ b/assets/data/LanguageConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\Documents\Warcraft III\Maps\Zulaman-WE\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AE25F6-7C63-4CD1-8475-A75A586697A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96CC1F4-F807-48E0-A2EF-CD8F9AEC1310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -1209,15 +1209,6 @@
     <t>lkey_lore_thunderfury_blade_of_windseeker</t>
   </si>
   <si>
-    <t>On Attack: 15% chance to cast Death Coil</t>
-  </si>
-  <si>
-    <t>Arthas Corruption set</t>
-  </si>
-  <si>
-    <t>Rise of Zandalari set</t>
-  </si>
-  <si>
     <t>lkey_attr_str</t>
   </si>
   <si>
@@ -1575,207 +1566,6 @@
     <t>+{0}移动速度/级</t>
   </si>
   <si>
-    <t>|cff87ceeb+{0}生命吸取|r</t>
-  </si>
-  <si>
-    <t>|cff87ceeb+{0}生命和法力吸取|r</t>
-  </si>
-  <si>
-    <t>|cff87ceeb造成 {0}额外法术伤害/击|r</t>
-  </si>
-  <si>
-    <t>|cff87ceeb造成 {0}额外法术伤害/击，目标生命越少伤害越高|r</t>
-  </si>
-  <si>
-    <t>|cff87ceeb秒杀生命值少于你的目标{0}|r</t>
-  </si>
-  <si>
-    <t>|cff87ceeb普通攻击转化为法术攻击{0}|r</t>
-  </si>
-  <si>
-    <t>|cff87ceeb神圣冲击必定造成极效治疗{0}|r</t>
-  </si>
-  <si>
-    <t>|cff87ceeb移除护盾的灵魂虚弱效果{0}|r</t>
-  </si>
-  <si>
-    <t>|cff87ceeb圣光闪现可以驱散一个有害法术效果{0}|r</t>
-  </si>
-  <si>
-    <t>|cff87ceeb受伤的{0}转化为法力|r</t>
-  </si>
-  <si>
-    <t>|cff87ceeb使用：传送到一个友军位置{0}|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33产生{0}更多的勇气点数|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33邪恶攻击和剔骨对低于30%生命的目标造成{0}额外伤害|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33对非英雄目标造成{0}额外伤害|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33减少瞬发愈合的冷却时间{0}秒(唯一)|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33每秒从附近敌人吸收{0}点生命|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33治疗祷言提高{0}点护甲|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33求生本能可以提供{0}额外的生命和生命上限|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33骨髓榨取可以延长痛的持续时间{0}秒|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33辛多雷之盾提供{0}额外免伤，并嘲讽附近所有目标|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33邪恶攻击有{0}概率麻痹敌人，降低20%法术急速并获得一个额外连击点|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33降低生存本能冷却时间{0}秒(唯一)|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33风暴鞭笞有{0}额外概率冷却地震术(唯一)|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33黑箭数量增加{0}(唯一)|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33冰系法术伤害增加{0}|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33{0}概率对暴风雪击中的目标立即施放寒冰箭|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33攻击时：每击增加1%攻速，最多叠加{0}，层，持续3秒|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33攻击时：{0}概率击退目标|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33攻击时：{0}概率增加30%攻速，持续5秒|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33攻击时：10%概率消耗5%法力，对直线目标造成{0}魔法伤害|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33攻击时：15%概率施展剧毒新星，对600范围内敌人造成{0}持续魔法伤害|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33攻击时：15%概率施展死亡缠绕{0}|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33攻击时：20%概率在成{0}流血伤害|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33攻击时：25%概率在成{0}物理伤害|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33攻击时：10%概率昏迷目标{0}秒|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33攻击时：{0}概率提升100%暴击|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33攻击时：目标受到{0}额外伤害|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33攻击时：目标受到的治疗降低{0}|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33攻击时：目标命中率降低{0}|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33攻击时：目标护甲降低{0}|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33攻击时：目标攻速降低{0}|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33攻击时：目标移动速度降低{0}|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33攻击时：目标造成的伤害和治疗效果降低{0}|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33每第三次攻击：消耗5%法力，对附近所有目标造成{0}魔法伤害|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33造成魔法伤害或治疗效果：1%概率恢复{0}法力|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33造成魔法伤害：10%概率令目标中毒，造成{0}持续魔法伤害|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33造成伤害：10%概率对目标施展闪电链，造成{0}魔法伤害|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33造成魔法伤害：15%概率提高{0}智力，持续15秒|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33造成魔法伤害：10%概率施展秘法飞弹，造成{0}魔法伤害|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33魔法暴击：充能1层秘法，3次充能之后会朝目标释放，造成{0}魔法伤害|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33受到治疗：充能1层神圣能量，最多叠加{0}层|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33受到攻击：降低目标的攻击{0}|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33赋予信念光环：600范围内的敌人受到{0}额外魔法伤害|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33赋予冥想光环：600范围内的友军每秒恢复{0}点法力|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33赋予战歌光环：600范围内的友军造成{0}更多的伤害和治疗，受到的治疗效果提升10%|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33赋予邪恶光环：600范围内的友军每秒恢复{0}点生命|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33使用：战斗命令，提高900范围内友军{0}点最大生命，持续75秒|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33使用：恢复{0}法力|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33使用：恢复{0}点生命|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33使用：对范围内的敌人造成{0}持续的魔法伤害|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33使用：提升法术强度{0}点，持续15秒|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33使用：提升30%躲闪，持续{0}秒|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33使用：提升300移动速度，持续{0}秒。有可能失败。|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33使用：增加100%攻速，受到{0}额外伤害(唯一)|r</t>
-  </si>
-  <si>
-    <t>|cff33ff33使用：释放所有神圣能量来治疗自己，每点能量治疗{0}点生命|r</t>
-  </si>
-  <si>
-    <t>阿尔萨斯的堕落{0}|r</t>
-  </si>
-  <si>
-    <t>赞达拉的崛起{0}|r</t>
-  </si>
-  <si>
     <t>+{0} Strength</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1795,198 +1585,12 @@
     <t>+{0} Armor</t>
   </si>
   <si>
-    <t>+{0} Life stolen per hit</t>
-  </si>
-  <si>
-    <t>+{0} Life and mana stolen per hit</t>
-  </si>
-  <si>
-    <t>Deals {0} extra magical damage per hit</t>
-  </si>
-  <si>
-    <t>Deals {0} extra magical damage per hit, scaled up by target HP lost</t>
-  </si>
-  <si>
-    <t>One-shot target when it's HP is less than yours{0}</t>
-  </si>
-  <si>
-    <t>Converts your normal attacks into magical damage{0}</t>
-  </si>
-  <si>
-    <t>Holy Shock always deals critical healing{0}</t>
-  </si>
-  <si>
-    <t>Removes weakness effect of Shield{0}</t>
-  </si>
-  <si>
-    <t>Flash Light dispels one debuff from target{0}</t>
-  </si>
-  <si>
-    <t>Regens MP from {0} of the damage taken</t>
-  </si>
-  <si>
-    <t>Use: Teleports to an ally{0}</t>
-  </si>
-  <si>
-    <t>Regenerates {0} more valor points</t>
-  </si>
-  <si>
-    <t>Sinister Strike and Eviscerate deal {0} extra damage to target below 30% max HP</t>
-  </si>
-  <si>
-    <t>Deals {0} extra damage to non-hero targets</t>
-  </si>
-  <si>
-    <t>Reduce cooldown of Instant Regrowth by {0} seconds (unique)</t>
-  </si>
-  <si>
-    <t>Absorb {0} HP from all enemies nearby every second</t>
-  </si>
-  <si>
-    <t>Prayer of healing increases armor of target by {0}</t>
-  </si>
-  <si>
-    <t>Survival Instincts provides {0} extra healing and max HP</t>
-  </si>
-  <si>
-    <t>Marrow Squeeze extends the Pain on target by {0} seconds</t>
-  </si>
-  <si>
-    <t>Shield of Sin'dorei provides {0} extra damage reduction, and forces all nearby enemies to attack you</t>
-  </si>
-  <si>
-    <t>Sinister Strike has a {0} chance to paralyze target, reduce target spell haste by 20% and gain an extra combo point</t>
-  </si>
-  <si>
-    <t>Reduce cooldown of Survival Instincts by {0} seconds (unique)</t>
-  </si>
-  <si>
-    <t>Storm Lash has {0} extra chance to cooldown Earth Shock (unique)</t>
-  </si>
-  <si>
-    <t>Number of Dark Arrows increased by {0} (unique)</t>
-  </si>
-  <si>
-    <t>Increase ice spell damage by {0}</t>
-  </si>
-  <si>
-    <t>{0} chance to cast an instant Frost Bolt to targets damaged by Blizzard</t>
-  </si>
-  <si>
-    <t>On Attack: Increase attack speed by 1% per attack, stacks up to {0}, lasts for 3 seconds</t>
-  </si>
-  <si>
-    <t>On Attack: {0} chance to knock back target</t>
-  </si>
-  <si>
-    <t>On Attack: {0} chance to increase 30% attack speed, lasts for 5 seconds</t>
-  </si>
-  <si>
-    <t>On Attack: 10% chance to consume 5% of max MP, deals {0} magical damage to all enemies in a row</t>
-  </si>
-  <si>
-    <t>On Attack: 15% chance to cast poison nova, dealing {0} magical damage over time to all enemies within 600 yards</t>
-  </si>
-  <si>
-    <t>On Attack: 20% chance to deal {0} bleed damage</t>
-  </si>
-  <si>
-    <t>On Attack: 25% chance to deal {0} physical damage</t>
-  </si>
-  <si>
-    <t>On Attack: 10% chance to stun target for {0} seconds</t>
-  </si>
-  <si>
-    <t>On Attack: {0} chance to increase 100% attack critical chance</t>
-  </si>
-  <si>
-    <t>On Attack: Target takes {0} extra damage</t>
-  </si>
-  <si>
-    <t>On Attack: Decrease target healing taken by {0}</t>
-  </si>
-  <si>
-    <t>On Attack: Decrease target attack accuracy by {0}</t>
-  </si>
-  <si>
-    <t>On Attack: Decrease target armor by {0}</t>
-  </si>
-  <si>
-    <t>On Attack: Decrease target attack speed by {0}</t>
-  </si>
-  <si>
-    <t>On Attack: Decrease target movement speed by {0}</t>
-  </si>
-  <si>
-    <t>On Attack: Decrease target damage and healing dealt by {0}</t>
-  </si>
-  <si>
-    <t>Every Third Attack: Consumes 5% of max MP, deals {0} magical damage to all enemies nearby</t>
-  </si>
-  <si>
-    <t>Dealing Magical Damage or Healing: 1% chance to regen {0} MP</t>
-  </si>
-  <si>
-    <t>Dealing Magical Damage: 10% chance to poison target, dealing {0} magical damage over time</t>
-  </si>
-  <si>
-    <t>Dealing Damage: 10% chance to cast Chain Lightning to target, dealing {0} magical damage</t>
-  </si>
-  <si>
-    <t>Dealing Magical Damage: 15% chance to increase intelligence by {0}, lasts for 15 seconds</t>
-  </si>
-  <si>
-    <t>Dealing Magical Damage: 10% chance to cast Arcane Missile, dealing {0} magical damage</t>
-  </si>
-  <si>
-    <t>Magical Damage Critical: Charges with arcane power. All arcane power will be released automatically after 3 stacks, dealing {0} magical damage to target</t>
-  </si>
-  <si>
-    <t>On Healed: Charges 1 holy power, stacks up to {0} points</t>
-  </si>
-  <si>
-    <t>On Attacked: Decreases attacker's attack power by {0}</t>
-  </si>
-  <si>
-    <t>Grant Aura of Conviction: All enemies within 600 yards take {0} more magical damage</t>
-  </si>
-  <si>
-    <t>Grant Aura of Meditation: All allies within 600 yards regen {0} MP per second</t>
-  </si>
-  <si>
-    <t>Grant Aura of Warsong: All allies deal {0} more damage and healing, take 10% more healing within 600 yards</t>
-  </si>
-  <si>
-    <t>Grant Aura of Unholy: All allies within 600 yards regen {0} HP per second</t>
-  </si>
-  <si>
-    <t>Use: Battle Orders, increases {0} max HP to all allies within 900 yards, lasts for 75 seconds</t>
-  </si>
-  <si>
     <t>Use: Regens {0} MP</t>
   </si>
   <si>
     <t>Use: Regens {0} HP</t>
   </si>
   <si>
-    <t>Use: Deals {0} magical damage to all enemies within range over time</t>
-  </si>
-  <si>
-    <t>Use: Increase spell power by {0}, lasts for 15 seconds</t>
-  </si>
-  <si>
-    <t>Use: Increase dodge chance by 30%, lasts for {0} seconds</t>
-  </si>
-  <si>
-    <t>Use: Increase movement speed by 300, lasts for {0} seconds. Possible failures.</t>
-  </si>
-  <si>
-    <t>Use: Increase attack speed by 100%, take {0} extra damage (unique)</t>
-  </si>
-  <si>
-    <t>Use: Release all holy power to heal yourself, each point heals {0} HP</t>
-  </si>
-  <si>
     <t>+{0}% Max HP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2123,19 +1727,481 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Improve Item |cff33ff33Special Power|r + {0}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增强物品|cff33ff33特效|r+{0}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>+{0}% Mana Stolen Per Hit</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>|cff87ceeb+{0}%法力吸取|r</t>
+    <t>增强物品特效+{0}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improve Item Special Power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0}%法力吸取</t>
+  </si>
+  <si>
+    <t>+{0}生命吸取</t>
+  </si>
+  <si>
+    <t>+{0}生命和法力吸取</t>
+  </si>
+  <si>
+    <t>每秒从附近敌人吸收{0}点生命</t>
+  </si>
+  <si>
+    <t>治疗祷言提高{0}点护甲</t>
+  </si>
+  <si>
+    <t>骨髓榨取可以延长痛的持续时间{0}秒</t>
+  </si>
+  <si>
+    <t>辛多雷之盾提供{0}额外免伤，并嘲讽附近所有目标</t>
+  </si>
+  <si>
+    <t>攻击时：10%概率消耗5%法力，对直线目标造成{0}魔法伤害</t>
+  </si>
+  <si>
+    <t>攻击时：15%概率施展剧毒新星，对600范围内敌人造成{0}持续魔法伤害</t>
+  </si>
+  <si>
+    <t>攻击时：20%概率在成{0}流血伤害</t>
+  </si>
+  <si>
+    <t>攻击时：25%概率在成{0}物理伤害</t>
+  </si>
+  <si>
+    <t>攻击时：10%概率昏迷目标{0}秒</t>
+  </si>
+  <si>
+    <t>攻击时：目标受到{0}额外伤害</t>
+  </si>
+  <si>
+    <t>攻击时：目标护甲降低{0}</t>
+  </si>
+  <si>
+    <t>攻击时：目标移动速度降低{0}</t>
+  </si>
+  <si>
+    <t>每第三次攻击：消耗5%法力，对附近所有目标造成{0}魔法伤害</t>
+  </si>
+  <si>
+    <t>造成魔法伤害或治疗效果：1%概率恢复{0}法力</t>
+  </si>
+  <si>
+    <t>造成魔法伤害：10%概率令目标中毒，造成{0}持续魔法伤害</t>
+  </si>
+  <si>
+    <t>造成伤害：10%概率对目标施展闪电链，造成{0}魔法伤害</t>
+  </si>
+  <si>
+    <t>造成魔法伤害：15%概率提高{0}智力，持续15秒</t>
+  </si>
+  <si>
+    <t>造成魔法伤害：10%概率施展秘法飞弹，造成{0}魔法伤害</t>
+  </si>
+  <si>
+    <t>魔法暴击：充能1层秘法，3次充能之后会朝目标释放，造成{0}魔法伤害</t>
+  </si>
+  <si>
+    <t>受到治疗：充能1层神圣能量，最多叠加{0}层</t>
+  </si>
+  <si>
+    <t>受到攻击：降低目标的攻击{0}</t>
+  </si>
+  <si>
+    <t>赋予冥想光环：600范围内的友军每秒恢复{0}点法力</t>
+  </si>
+  <si>
+    <t>赋予邪恶光环：600范围内的友军每秒恢复{0}点生命</t>
+  </si>
+  <si>
+    <t>使用：战斗命令，提高900范围内友军{0}点最大生命，持续75秒</t>
+  </si>
+  <si>
+    <t>使用：恢复{0}法力</t>
+  </si>
+  <si>
+    <t>使用：恢复{0}点生命</t>
+  </si>
+  <si>
+    <t>使用：对范围内的敌人造成{0}持续的魔法伤害</t>
+  </si>
+  <si>
+    <t>使用：提升法术强度{0}点，持续15秒</t>
+  </si>
+  <si>
+    <t>使用：提升30%躲闪，持续{0}秒</t>
+  </si>
+  <si>
+    <t>使用：提升300移动速度，持续{0}秒。有可能失败。</t>
+  </si>
+  <si>
+    <t>使用：释放所有神圣能量来治疗自己，每点能量治疗{0}点生命</t>
+  </si>
+  <si>
+    <t>+{0} Life Stolen Per Hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0} Life And Mana Stolen Per Hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals {0} Extra Magical Damage Per Hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals {0} Extra Magical Damage Per Hit, Scaled Up By Target HP Lost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>One-Shot Target When It's HP Is Less Than Yours</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒杀生命值少于你的目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}额外法术伤害/击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}额外法术伤害/击，目标生命越少伤害越高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marrow Squeeze Extends The Pain On Target By {0} Seconds</t>
+  </si>
+  <si>
+    <t>{0} Chance To Cast An Instant Frost Bolt To Targets Damaged By Blizzard</t>
+  </si>
+  <si>
+    <t>On Attack: 10% Chance To Consume 5% Of Max MP, Deals {0} Magical Damage To All Enemies In A Row</t>
+  </si>
+  <si>
+    <t>On Attack: 15% Chance To Cast Poison Nova, Dealing {0} Magical Damage Over Time To All Enemies Within 600 Yards</t>
+  </si>
+  <si>
+    <t>On Attack: 20% Chance To Deal {0} Bleed Damage</t>
+  </si>
+  <si>
+    <t>On Attack: 25% Chance To Deal {0} Physical Damage</t>
+  </si>
+  <si>
+    <t>On Attack: 10% Chance To Stun Target For {0} Seconds</t>
+  </si>
+  <si>
+    <t>On Attack: Target Takes {0} Extra Damage</t>
+  </si>
+  <si>
+    <t>On Attack: Decrease Target Armor By {0}</t>
+  </si>
+  <si>
+    <t>On Attack: Decrease Target Movement Speed By {0}</t>
+  </si>
+  <si>
+    <t>Every Third Attack: Consumes 5% Of Max MP, Deals {0} Magical Damage To All Enemies Nearby</t>
+  </si>
+  <si>
+    <t>Dealing Magical Damage Or Healing: 1% Chance To Regen {0} MP</t>
+  </si>
+  <si>
+    <t>Dealing Magical Damage: 10% Chance To Poison Target, Dealing {0} Magical Damage Over Time</t>
+  </si>
+  <si>
+    <t>Dealing Damage: 10% Chance To Cast Chain Lightning To Target, Dealing {0} Magical Damage</t>
+  </si>
+  <si>
+    <t>Dealing Magical Damage: 15% Chance To Increase Intelligence By {0}, Lasts For 15 Seconds</t>
+  </si>
+  <si>
+    <t>Dealing Magical Damage: 10% Chance To Cast Arcane Missile, Dealing {0} Magical Damage</t>
+  </si>
+  <si>
+    <t>Magical Damage Critical: Charges With Arcane Power. All Arcane Power Will Be Released Automatically After 3 Stacks, Dealing {0} Magical Damage To Target</t>
+  </si>
+  <si>
+    <t>On Healed: Charges 1 Holy Power, Stacks Up To {0} Points</t>
+  </si>
+  <si>
+    <t>On Attacked: Decreases Attacker's Attack Power By {0}</t>
+  </si>
+  <si>
+    <t>Grant Aura Of Meditation: All Allies Within 600 Yards Regen {0} MP Per Second</t>
+  </si>
+  <si>
+    <t>Grant Aura Of Unholy: All Allies Within 600 Yards Regen {0} HP Per Second</t>
+  </si>
+  <si>
+    <t>Use: Battle Orders, Increases {0} Max HP To All Allies Within 900 Yards, Lasts For 75 Seconds</t>
+  </si>
+  <si>
+    <t>Use: Deals {0} Magical Damage To All Enemies Within Range Over Time</t>
+  </si>
+  <si>
+    <t>Use: Increase Spell Power By {0}, Lasts For 15 Seconds</t>
+  </si>
+  <si>
+    <t>Use: Increase Dodge Chance By 30%, Lasts For {0} Seconds</t>
+  </si>
+  <si>
+    <t>Use: Increase Movement Speed By 300, Lasts For {0} Seconds. Possible Failures.</t>
+  </si>
+  <si>
+    <t>Use: Release All Holy Power To Heal Yourself, Each Point Heals {0} HP</t>
+  </si>
+  <si>
+    <t>Arthas Corruption Set</t>
+  </si>
+  <si>
+    <t>Rise Of Zandalari Set</t>
+  </si>
+  <si>
+    <t>Converts Your Normal Attacks To Magical Damage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击转化为法术攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holy Shock Always Deals Critical Healing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣冲击必定造成极效治疗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Removes Weakness Effect Of Shield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除护盾的灵魂虚弱效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flash Light Dispels One Debuff From Target</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光闪现可以驱散一个有害法术效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regens MP From {0}% Of The Damage Taken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤的{0}%转化为法力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Teleports To An Ally</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用：传送到一个友军位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regenerates {0}% More Valor Points</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生{0}%更多的勇气点数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sinister Strike And Eviscerate Deal {0}% Extra Damage To Target Below 30% Max HP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪恶攻击和剔骨对低于30%生命的目标造成{0}%额外伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals {0}% Extra Damage To Non-hero Targets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对非英雄目标造成{0}%额外伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduce Cooldown Of Instant Regrowth By {0} Seconds (Unique)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少瞬发愈合的冷却时间{0}秒（唯一）</t>
+  </si>
+  <si>
+    <t>降低生存本能冷却时间{0}秒（唯一）</t>
+  </si>
+  <si>
+    <t>黑箭数量增加{0}（唯一）</t>
+  </si>
+  <si>
+    <t>Absorbs {0} HP From All Enemies Nearby Per Second</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prayer Of Healing Increases {0} Armor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survival Instincts Provides {0} Extra HP And Max HP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>求生本能可以提供{0}%额外的生命和生命上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield Of Sin'dorei Provides {0} Extra Damage Reduction, And Taunts All Enemies Nearby</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduce Cooldown Of Survival Instincts By {0} Seconds (Unique)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storm Lash Has {0}% Extra Chance To Cooldown Earth Shock (Unique)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风暴鞭笞有{0}%额外概率冷却地震术（唯一）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sinister Strike Has A {0}% Chance To Paralyze Target, Reduce Target Spell Haste By 20% And Gain An Extra Combo Point</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪恶攻击有{0}%概率麻痹敌人，降低20%法术急速并获得一个额外连击点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Of Dark Arrows Increased By {0} (Unique)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase Ice Spell Damage By {0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰系法术伤害增加{0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}%概率对暴风雪击中的目标立即施放寒冰箭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时：每击增加1%攻速，最多叠加{0}层，持续3秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Attack: Increase Attack Speed By 1% Per Attack, Up To {0} Stacks, Lasts For 3 Seconds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Attack: {0}% Chance To Knock Back Target</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Attack: {0}% Chance To Increase 30% Attack Speed, Lasts For 5 Seconds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时：{0}%概率击退目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时：{0}%概率增加30%攻速，持续5秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Attack: {0}% Chance To Increase 100% Attack Critical Chance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时：{0}%概率提升100%暴击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Attack: Decrease Target Healing Taken By {0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时：目标受到的治疗降低{0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Attack: Decrease Target Attack Accuracy By {0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时：目标命中率降低{0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Attack: Decrease Target Attack Speed By {0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时：目标攻速降低{0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Attack: Decrease Target Damage And Healing Dealt By {0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时：目标造成的伤害和治疗效果降低{0}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grant Aura Of Conviction: All Enemies Within 600 Yards Take {0}% More Magical Damage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赋予信念光环：600范围内的敌人受到{0}%额外魔法伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grant Aura Of Warsong: All Allies Deal {0}% More Damage And Healing, Take 10% More Healing Within 600 Yards</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赋予战歌光环：600范围内的友军造成{0}%更多的伤害和治疗，受到的治疗效果提升10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Increase Attack Speed By 100%, Take {0}% Extra Damage (Unique)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用：增加100%攻速，受到{0}%额外伤害（唯一）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔萨斯的堕落</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞达拉的崛起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Attack: 15% Chance To Cast Death Coil, Dealing {0} Magical Damage, Target Takes 3% Extra Damage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时：15%概率施展死亡缠绕，对目标造成{0}点魔法伤害并使其受到的伤害提高3%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4442,16 +4508,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9DF4C1-75AE-4DFD-A39E-52C4C78C52C6}">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="138.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="87.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="48.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4506,1487 +4572,1487 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B5">
         <f>ROW()+995</f>
         <v>1000</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>579</v>
+        <v>509</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B6">
         <f t="shared" ref="B6:B69" si="0">ROW()+995</f>
         <v>1001</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>661</v>
+        <v>529</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
         <v>1002</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
         <v>1003</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>581</v>
+        <v>511</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
         <v>1004</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>662</v>
+        <v>530</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
         <v>1005</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>582</v>
+        <v>512</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
         <v>1006</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>649</v>
+        <v>517</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>650</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
         <v>1007</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>663</v>
+        <v>531</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
         <v>1008</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>583</v>
+        <v>513</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
         <v>1009</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>653</v>
+        <v>521</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
         <v>1010</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>664</v>
+        <v>532</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
         <v>1011</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>654</v>
+        <v>522</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>652</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
         <v>1012</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>655</v>
+        <v>523</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>651</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
         <v>1013</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>656</v>
+        <v>524</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
         <v>1014</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>657</v>
+        <v>525</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>659</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
         <v>1015</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>658</v>
+        <v>526</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>660</v>
+        <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
         <v>1016</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>584</v>
+        <v>514</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
         <v>1017</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>665</v>
+        <v>533</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
         <v>1018</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>666</v>
+        <v>534</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>667</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
         <v>1019</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>668</v>
+        <v>536</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
         <v>1020</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>669</v>
+        <v>537</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>670</v>
+        <v>538</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
         <v>1021</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>671</v>
+        <v>539</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
         <v>1022</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>672</v>
+        <v>540</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
         <v>1023</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>673</v>
+        <v>541</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>674</v>
+        <v>542</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>676</v>
+        <v>544</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>675</v>
+        <v>543</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
         <v>1025</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>677</v>
+        <v>545</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
         <v>1026</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>678</v>
+        <v>546</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
         <v>1027</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>679</v>
+        <v>547</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>680</v>
+        <v>548</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
         <v>1028</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>681</v>
+        <v>549</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
         <v>1029</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>682</v>
+        <v>550</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
         <v>1030</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>683</v>
+        <v>553</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>684</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
         <v>1031</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>685</v>
+        <v>551</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>686</v>
+        <v>554</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
         <v>1032</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
         <v>1033</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>513</v>
+        <v>556</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
         <v>1034</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>514</v>
+        <v>594</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
         <v>1035</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>515</v>
+        <v>595</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
         <v>1036</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>516</v>
+        <v>593</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
         <v>1037</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>590</v>
+        <v>625</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>517</v>
+        <v>626</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
         <v>1038</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>591</v>
+        <v>627</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>518</v>
+        <v>628</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
         <v>1039</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>592</v>
+        <v>629</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>519</v>
+        <v>630</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
         <v>1040</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>593</v>
+        <v>631</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>520</v>
+        <v>632</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
         <v>1041</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>594</v>
+        <v>633</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>521</v>
+        <v>634</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
         <v>1042</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>522</v>
+        <v>636</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
         <v>1043</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>596</v>
+        <v>637</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>523</v>
+        <v>638</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
         <v>1044</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>597</v>
+        <v>639</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>524</v>
+        <v>640</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
         <v>1045</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>598</v>
+        <v>641</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>525</v>
+        <v>642</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
         <v>1046</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>599</v>
+        <v>643</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>526</v>
+        <v>644</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
         <v>1047</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>600</v>
+        <v>647</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
         <v>1048</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>601</v>
+        <v>648</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>528</v>
+        <v>558</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
         <v>1049</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>602</v>
+        <v>649</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>529</v>
+        <v>650</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>530</v>
+        <v>559</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
         <v>1051</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>604</v>
+        <v>651</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>531</v>
+        <v>560</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
         <v>1052</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>605</v>
+        <v>655</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>532</v>
+        <v>656</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
         <v>1053</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>606</v>
+        <v>652</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>533</v>
+        <v>645</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
         <v>1054</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>607</v>
+        <v>653</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>534</v>
+        <v>654</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
         <v>1055</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>608</v>
+        <v>657</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>535</v>
+        <v>646</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
         <v>1056</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>609</v>
+        <v>658</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>536</v>
+        <v>659</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
         <v>1057</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>537</v>
+        <v>660</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
         <v>1058</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>611</v>
+        <v>662</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>538</v>
+        <v>661</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
         <v>1059</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>612</v>
+        <v>663</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>539</v>
+        <v>665</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
         <v>1060</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>613</v>
+        <v>664</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>540</v>
+        <v>666</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
         <v>1061</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B67">
         <f t="shared" si="0"/>
         <v>1062</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B68">
         <f t="shared" si="0"/>
         <v>1063</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>390</v>
+        <v>685</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>543</v>
+        <v>686</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B69">
         <f t="shared" si="0"/>
         <v>1064</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B70">
         <f t="shared" ref="B70:B103" si="1">ROW()+995</f>
         <v>1065</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
         <v>1066</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B72">
         <f t="shared" si="1"/>
         <v>1067</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>619</v>
+        <v>667</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>547</v>
+        <v>668</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B73">
         <f t="shared" si="1"/>
         <v>1068</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B74">
         <f t="shared" si="1"/>
         <v>1069</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>621</v>
+        <v>669</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>549</v>
+        <v>670</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B75">
         <f t="shared" si="1"/>
         <v>1070</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>622</v>
+        <v>671</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>550</v>
+        <v>672</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B76">
         <f t="shared" si="1"/>
         <v>1071</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B77">
         <f t="shared" si="1"/>
         <v>1072</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>624</v>
+        <v>673</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>552</v>
+        <v>674</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B78">
         <f t="shared" si="1"/>
         <v>1073</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B79">
         <f t="shared" si="1"/>
         <v>1074</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>626</v>
+        <v>675</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>554</v>
+        <v>676</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B80">
         <f t="shared" si="1"/>
         <v>1075</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B81">
         <f t="shared" si="1"/>
         <v>1076</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B82">
         <f t="shared" si="1"/>
         <v>1077</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B83">
         <f t="shared" si="1"/>
         <v>1078</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>630</v>
+        <v>609</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B84">
         <f t="shared" si="1"/>
         <v>1079</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B85">
         <f t="shared" si="1"/>
         <v>1080</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B86">
         <f t="shared" si="1"/>
         <v>1081</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B87">
         <f t="shared" si="1"/>
         <v>1082</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B88">
         <f t="shared" si="1"/>
         <v>1083</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B89">
         <f t="shared" si="1"/>
         <v>1084</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>636</v>
+        <v>677</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>564</v>
+        <v>678</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B90">
         <f t="shared" si="1"/>
         <v>1085</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>637</v>
+        <v>615</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B91">
         <f t="shared" si="1"/>
         <v>1086</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>638</v>
+        <v>679</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>566</v>
+        <v>680</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B92">
         <f t="shared" si="1"/>
         <v>1087</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B93">
         <f t="shared" si="1"/>
         <v>1088</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B94">
         <f t="shared" si="1"/>
         <v>1089</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>641</v>
+        <v>515</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B95">
         <f t="shared" si="1"/>
         <v>1090</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>642</v>
+        <v>516</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B96">
         <f t="shared" si="1"/>
         <v>1091</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B97">
         <f t="shared" si="1"/>
         <v>1092</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B98">
         <f t="shared" si="1"/>
         <v>1093</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B99">
         <f t="shared" si="1"/>
         <v>1094</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B100">
         <f t="shared" si="1"/>
         <v>1095</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>647</v>
+        <v>681</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>575</v>
+        <v>682</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B101">
         <f t="shared" si="1"/>
         <v>1096</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B102">
         <f t="shared" si="1"/>
         <v>1097</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>391</v>
+        <v>623</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>577</v>
+        <v>683</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B103">
         <f t="shared" si="1"/>
         <v>1098</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>392</v>
+        <v>624</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/LanguageConfig.xlsx
+++ b/assets/data/LanguageConfig.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\Documents\Warcraft III\Maps\Zulaman-WE\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96CC1F4-F807-48E0-A2EF-CD8F9AEC1310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5199E0E9-AAA4-4024-8CC3-2E0BECF6AB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
     <sheet name="Attr" sheetId="2" r:id="rId2"/>
+    <sheet name="BuffObject" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="780">
   <si>
     <t>语言Key</t>
   </si>
@@ -2203,6 +2204,285 @@
   <si>
     <t>攻击时：15%概率施展死亡缠绕，对目标造成{0}点魔法伤害并使其受到的伤害提高3%</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fortitude</t>
+  </si>
+  <si>
+    <t>Paralysis Poison</t>
+  </si>
+  <si>
+    <t>Deranged</t>
+  </si>
+  <si>
+    <t>Power of Storm</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>Death Coil</t>
+  </si>
+  <si>
+    <t>Bleed</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Rotten</t>
+  </si>
+  <si>
+    <t>Dizzy</t>
+  </si>
+  <si>
+    <t>Fragile</t>
+  </si>
+  <si>
+    <t>Fatigue</t>
+  </si>
+  <si>
+    <t>Slow</t>
+  </si>
+  <si>
+    <t>Weakened</t>
+  </si>
+  <si>
+    <t>Voodoo Poison</t>
+  </si>
+  <si>
+    <t>Silver Crescent</t>
+  </si>
+  <si>
+    <t>The Damned</t>
+  </si>
+  <si>
+    <t>Warsong</t>
+  </si>
+  <si>
+    <t>Call to Arms</t>
+  </si>
+  <si>
+    <t>Hex Power</t>
+  </si>
+  <si>
+    <t>Luck</t>
+  </si>
+  <si>
+    <t>Booster</t>
+  </si>
+  <si>
+    <t>Ancient Derangement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armor is increased. </t>
+  </si>
+  <si>
+    <t>Spell cast speed is decreased.</t>
+  </si>
+  <si>
+    <t>Attack speed is increased.</t>
+  </si>
+  <si>
+    <t>Takes magical damage over time.</t>
+  </si>
+  <si>
+    <t>Takes increased damage.</t>
+  </si>
+  <si>
+    <t>Takes physical damage over time.</t>
+  </si>
+  <si>
+    <t>Attack critical chance is increased by 100%.</t>
+  </si>
+  <si>
+    <t>Healing taken is decreased.</t>
+  </si>
+  <si>
+    <t>Attack accuracy is decreased.</t>
+  </si>
+  <si>
+    <t>Armor is decreased.</t>
+  </si>
+  <si>
+    <t>Attack speed is decreased.</t>
+  </si>
+  <si>
+    <t>Movement speed is decreased.</t>
+  </si>
+  <si>
+    <t>Damage and healing dealt is decreased.</t>
+  </si>
+  <si>
+    <t>Intelligence is increased.</t>
+  </si>
+  <si>
+    <t>Attack power is decreased.</t>
+  </si>
+  <si>
+    <t>Takes increased magical damage.</t>
+  </si>
+  <si>
+    <t>Damage and healing dealt is increased, takes increased healing.</t>
+  </si>
+  <si>
+    <t>Max HP is increased.</t>
+  </si>
+  <si>
+    <t>Spell power is increased.</t>
+  </si>
+  <si>
+    <t>Dodge chance is increased.</t>
+  </si>
+  <si>
+    <t>Movement speed is increased.</t>
+  </si>
+  <si>
+    <t>Attack speed is increased, takes increased damage.</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_pr_pohdef</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_rg_paralz</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_atk_cthun</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_atk_lion</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_atk_poisnova</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_atk_coil</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_atk_bleed</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_atk_crit</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_atk_mortal</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_atk_miss</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_atk_ddef</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_atk_das</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_atk_dms</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_atk_weak</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_md_poison</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_use_int</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_atked_weak</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_aura_convic</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_aura_warsong</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_use_battle</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_use_sp</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_use_dodge</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_use_ms</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_use_cthun</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_pr_pohdef</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_rg_paralz</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_atk_cthun</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_atk_lion</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_atk_poisnova</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_atk_coil</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_atk_bleed</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_atk_crit</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_atk_mortal</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_atk_miss</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_atk_ddef</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_atk_das</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_atk_dms</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_atk_weak</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_md_poison</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_use_int</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_atked_weak</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_aura_convic</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_aura_warsong</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_use_battle</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_use_sp</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_use_dodge</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_use_ms</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_use_cthun</t>
   </si>
 </sst>
 </file>
@@ -4508,8 +4788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9DF4C1-75AE-4DFD-A39E-52C4C78C52C6}">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6060,4 +6340,651 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324345F0-B370-436E-9C67-CF524D45221A}">
+  <dimension ref="A1:D52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B5">
+        <f>ROW()+9995</f>
+        <v>10000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>733</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B52" si="0">ROW()+9995</f>
+        <v>10001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>734</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>10002</v>
+      </c>
+      <c r="C7" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>735</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>10003</v>
+      </c>
+      <c r="C8" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>736</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>10004</v>
+      </c>
+      <c r="C9" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>737</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>10005</v>
+      </c>
+      <c r="C10" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>738</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>10006</v>
+      </c>
+      <c r="C11" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>739</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>10007</v>
+      </c>
+      <c r="C12" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>740</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>10008</v>
+      </c>
+      <c r="C13" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>741</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>10009</v>
+      </c>
+      <c r="C14" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>742</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>10010</v>
+      </c>
+      <c r="C15" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>743</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>10011</v>
+      </c>
+      <c r="C16" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>744</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>10012</v>
+      </c>
+      <c r="C17" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>745</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>10013</v>
+      </c>
+      <c r="C18" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>746</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>10014</v>
+      </c>
+      <c r="C19" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>747</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>10015</v>
+      </c>
+      <c r="C20" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>748</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>10016</v>
+      </c>
+      <c r="C21" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>749</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>10017</v>
+      </c>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>750</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>10018</v>
+      </c>
+      <c r="C23" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>751</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>10019</v>
+      </c>
+      <c r="C24" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>752</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>10020</v>
+      </c>
+      <c r="C25" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>753</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>10021</v>
+      </c>
+      <c r="C26" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>754</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>10022</v>
+      </c>
+      <c r="C27" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>755</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>10023</v>
+      </c>
+      <c r="C28" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>756</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>10024</v>
+      </c>
+      <c r="C29" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>757</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>10025</v>
+      </c>
+      <c r="C30" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>758</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>10026</v>
+      </c>
+      <c r="C31" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>759</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>10027</v>
+      </c>
+      <c r="C32" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>760</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>10028</v>
+      </c>
+      <c r="C33" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>761</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>10029</v>
+      </c>
+      <c r="C34" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>762</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>10030</v>
+      </c>
+      <c r="C35" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>763</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>10031</v>
+      </c>
+      <c r="C36" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>764</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>10032</v>
+      </c>
+      <c r="C37" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>765</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>10033</v>
+      </c>
+      <c r="C38" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>766</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>10034</v>
+      </c>
+      <c r="C39" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>767</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>10035</v>
+      </c>
+      <c r="C40" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>768</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>10036</v>
+      </c>
+      <c r="C41" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>769</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>10037</v>
+      </c>
+      <c r="C42" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>770</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>10038</v>
+      </c>
+      <c r="C43" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>771</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>10039</v>
+      </c>
+      <c r="C44" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>772</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>10040</v>
+      </c>
+      <c r="C45" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>773</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>10041</v>
+      </c>
+      <c r="C46" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>774</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>10042</v>
+      </c>
+      <c r="C47" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>775</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>10043</v>
+      </c>
+      <c r="C48" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>776</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>10044</v>
+      </c>
+      <c r="C49" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>777</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>10045</v>
+      </c>
+      <c r="C50" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>778</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>10046</v>
+      </c>
+      <c r="C51" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>779</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>10047</v>
+      </c>
+      <c r="C52" t="s">
+        <v>731</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/data/LanguageConfig.xlsx
+++ b/assets/data/LanguageConfig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\Documents\Warcraft III\Maps\Zulaman-WE\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5199E0E9-AAA4-4024-8CC3-2E0BECF6AB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9A9B4E-C9D0-4627-95BF-CAF3D835FAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
     <sheet name="Attr" sheetId="2" r:id="rId2"/>
-    <sheet name="BuffObject" sheetId="3" r:id="rId3"/>
+    <sheet name="Buff" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4788,8 +4788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9DF4C1-75AE-4DFD-A39E-52C4C78C52C6}">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6347,7 +6347,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/assets/data/LanguageConfig.xlsx
+++ b/assets/data/LanguageConfig.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\Documents\Warcraft III\Maps\Zulaman-WE\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9A9B4E-C9D0-4627-95BF-CAF3D835FAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D72F5E-0ECD-4AF0-A352-876016A842CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
     <sheet name="Attr" sheetId="2" r:id="rId2"/>
-    <sheet name="Buff" sheetId="3" r:id="rId3"/>
+    <sheet name="Affix" sheetId="4" r:id="rId3"/>
+    <sheet name="Buff" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1267">
   <si>
     <t>语言Key</t>
   </si>
@@ -2483,6 +2484,1628 @@
   </si>
   <si>
     <t>lkey_buffobj_utip_use_cthun</t>
+  </si>
+  <si>
+    <t>lkey_afx_lethality</t>
+  </si>
+  <si>
+    <t>lkey_afx_snake</t>
+  </si>
+  <si>
+    <t>lkey_afx_quickness</t>
+  </si>
+  <si>
+    <t>lkey_afx_wind_serpent</t>
+  </si>
+  <si>
+    <t>lkey_afx_brute</t>
+  </si>
+  <si>
+    <t>lkey_afx_dexterity</t>
+  </si>
+  <si>
+    <t>lkey_afx_wisdom</t>
+  </si>
+  <si>
+    <t>lkey_afx_vitality</t>
+  </si>
+  <si>
+    <t>lkey_afx_champion</t>
+  </si>
+  <si>
+    <t>lkey_afx_butcher</t>
+  </si>
+  <si>
+    <t>lkey_afx_assassin</t>
+  </si>
+  <si>
+    <t>lkey_afx_ranger</t>
+  </si>
+  <si>
+    <t>lkey_afx_wizard</t>
+  </si>
+  <si>
+    <t>lkey_afx_priest</t>
+  </si>
+  <si>
+    <t>lkey_afx_guardian</t>
+  </si>
+  <si>
+    <t>lkey_afx_mastery</t>
+  </si>
+  <si>
+    <t>lkey_afx_blur</t>
+  </si>
+  <si>
+    <t>lkey_afx_stronghold</t>
+  </si>
+  <si>
+    <t>lkey_afx_deep_sea</t>
+  </si>
+  <si>
+    <t>lkey_afx_void</t>
+  </si>
+  <si>
+    <t>lkey_afx_heavy</t>
+  </si>
+  <si>
+    <t>lkey_afx_strong</t>
+  </si>
+  <si>
+    <t>lkey_afx_sharp</t>
+  </si>
+  <si>
+    <t>lkey_afx_agile</t>
+  </si>
+  <si>
+    <t>lkey_afx_shimering</t>
+  </si>
+  <si>
+    <t>lkey_afx_intelligent</t>
+  </si>
+  <si>
+    <t>lkey_afx_endurable</t>
+  </si>
+  <si>
+    <t>lkey_afx_vibrant</t>
+  </si>
+  <si>
+    <t>lkey_afx_skilled</t>
+  </si>
+  <si>
+    <t>lkey_afx_cruel</t>
+  </si>
+  <si>
+    <t>lkey_afx_enchanted</t>
+  </si>
+  <si>
+    <t>lkey_afx_sorcerous</t>
+  </si>
+  <si>
+    <t>lkey_afx_mysterious</t>
+  </si>
+  <si>
+    <t>lkey_afx_eternal</t>
+  </si>
+  <si>
+    <t>lkey_afx_steady</t>
+  </si>
+  <si>
+    <t>lkey_afx_tough</t>
+  </si>
+  <si>
+    <t>lkey_afx_healthy</t>
+  </si>
+  <si>
+    <t>lkey_afx_everlasting</t>
+  </si>
+  <si>
+    <t>lkey_afx_vampire</t>
+  </si>
+  <si>
+    <t>lkey_afx_succubus</t>
+  </si>
+  <si>
+    <t>of Lethality</t>
+  </si>
+  <si>
+    <t>of Snake</t>
+  </si>
+  <si>
+    <t>of Quickness</t>
+  </si>
+  <si>
+    <t>of Wind Serpent</t>
+  </si>
+  <si>
+    <t>of Brute</t>
+  </si>
+  <si>
+    <t>of Dexterity</t>
+  </si>
+  <si>
+    <t>of Wisdom</t>
+  </si>
+  <si>
+    <t>of Vitality</t>
+  </si>
+  <si>
+    <t>of Champion</t>
+  </si>
+  <si>
+    <t>of Butcher</t>
+  </si>
+  <si>
+    <t>of Assassin</t>
+  </si>
+  <si>
+    <t>of Ranger</t>
+  </si>
+  <si>
+    <t>of Wizard</t>
+  </si>
+  <si>
+    <t>of Priest</t>
+  </si>
+  <si>
+    <t>of Guardian</t>
+  </si>
+  <si>
+    <t>of Mastery</t>
+  </si>
+  <si>
+    <t>of Blur</t>
+  </si>
+  <si>
+    <t>of Stronghold</t>
+  </si>
+  <si>
+    <t>of Deep Sea</t>
+  </si>
+  <si>
+    <t>of Void</t>
+  </si>
+  <si>
+    <t>Heavy</t>
+  </si>
+  <si>
+    <t>Strong</t>
+  </si>
+  <si>
+    <t>Sharp</t>
+  </si>
+  <si>
+    <t>Agile</t>
+  </si>
+  <si>
+    <t>Shimering</t>
+  </si>
+  <si>
+    <t>Intelligent</t>
+  </si>
+  <si>
+    <t>Endurable</t>
+  </si>
+  <si>
+    <t>Vibrant</t>
+  </si>
+  <si>
+    <t>Skilled</t>
+  </si>
+  <si>
+    <t>Cruel</t>
+  </si>
+  <si>
+    <t>Enchanted</t>
+  </si>
+  <si>
+    <t>Sorcerous</t>
+  </si>
+  <si>
+    <t>Mysterious</t>
+  </si>
+  <si>
+    <t>Eternal</t>
+  </si>
+  <si>
+    <t>Steady</t>
+  </si>
+  <si>
+    <t>Tough</t>
+  </si>
+  <si>
+    <t>Healthy</t>
+  </si>
+  <si>
+    <t>Everlasting</t>
+  </si>
+  <si>
+    <t>of Vampire</t>
+  </si>
+  <si>
+    <t>of Succubus</t>
+  </si>
+  <si>
+    <t>致命的</t>
+  </si>
+  <si>
+    <t>灵蛇的</t>
+  </si>
+  <si>
+    <t>快速的</t>
+  </si>
+  <si>
+    <t>风蛇的</t>
+  </si>
+  <si>
+    <t>蛮力的</t>
+  </si>
+  <si>
+    <t>灵巧的</t>
+  </si>
+  <si>
+    <t>屠夫的</t>
+  </si>
+  <si>
+    <t>刺客的</t>
+  </si>
+  <si>
+    <t>巫师的</t>
+  </si>
+  <si>
+    <t>护卫的</t>
+  </si>
+  <si>
+    <t>精通的</t>
+  </si>
+  <si>
+    <t>模糊的</t>
+  </si>
+  <si>
+    <t>深海的</t>
+  </si>
+  <si>
+    <t>虚空的</t>
+  </si>
+  <si>
+    <t>厚重之</t>
+  </si>
+  <si>
+    <t>强壮之</t>
+  </si>
+  <si>
+    <t>锋利之</t>
+  </si>
+  <si>
+    <t>敏捷之</t>
+  </si>
+  <si>
+    <t>残忍之</t>
+  </si>
+  <si>
+    <t>附魔之</t>
+  </si>
+  <si>
+    <t>神秘之</t>
+  </si>
+  <si>
+    <t>永恒之</t>
+  </si>
+  <si>
+    <t>稳固之</t>
+  </si>
+  <si>
+    <t>强健之</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持久之</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠军的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>射手的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧师的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>据点的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血鬼的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅魔的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微光之</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力之</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力之</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐久之</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技巧之</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫术之</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧之</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aran's Counter Spell Scroll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed Scroll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Frenzy</t>
+  </si>
+  <si>
+    <t>Scroll of Protection</t>
+  </si>
+  <si>
+    <t>Scroll of Mana</t>
+  </si>
+  <si>
+    <t>Scroll of Insulation</t>
+  </si>
+  <si>
+    <t>Scroll of Dispel</t>
+  </si>
+  <si>
+    <t>Potion of Invulnerability</t>
+  </si>
+  <si>
+    <t>Scroll of Healing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Armageddon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Beasts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Slaying</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Sanctuary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Mass Teleportation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Corruption</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Banshee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll of Weakness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potion of HP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potion of Mana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃兰的反制卷轴</t>
+  </si>
+  <si>
+    <t>加速卷轴</t>
+  </si>
+  <si>
+    <t>狂热卷轴</t>
+  </si>
+  <si>
+    <t>守护卷轴</t>
+  </si>
+  <si>
+    <t>魔法卷轴</t>
+  </si>
+  <si>
+    <t>医疗卷轴</t>
+  </si>
+  <si>
+    <t>末日审判卷轴</t>
+  </si>
+  <si>
+    <t>野兽卷轴</t>
+  </si>
+  <si>
+    <t>杀戮卷轴</t>
+  </si>
+  <si>
+    <t>庇护所卷轴</t>
+  </si>
+  <si>
+    <t>绝缘卷轴</t>
+  </si>
+  <si>
+    <t>大型驱魔卷轴</t>
+  </si>
+  <si>
+    <t>群体传送卷轴</t>
+  </si>
+  <si>
+    <t>腐蚀卷轴</t>
+  </si>
+  <si>
+    <t>女妖之嚎卷轴</t>
+  </si>
+  <si>
+    <t>虚弱诅咒卷轴</t>
+  </si>
+  <si>
+    <t>生命药水</t>
+  </si>
+  <si>
+    <t>魔法药水</t>
+  </si>
+  <si>
+    <t>吸血药水</t>
+  </si>
+  <si>
+    <t>再生药水</t>
+  </si>
+  <si>
+    <t>清晰预兆药水</t>
+  </si>
+  <si>
+    <t>魔力之源</t>
+  </si>
+  <si>
+    <t>宁静药水</t>
+  </si>
+  <si>
+    <t>大生命药水</t>
+  </si>
+  <si>
+    <t>魔导师药剂</t>
+  </si>
+  <si>
+    <t>战斗大师药剂</t>
+  </si>
+  <si>
+    <t>皇帝的新药</t>
+  </si>
+  <si>
+    <t>转换药剂</t>
+  </si>
+  <si>
+    <t>护盾药剂</t>
+  </si>
+  <si>
+    <t>壁垒药剂</t>
+  </si>
+  <si>
+    <t>闪避药水</t>
+  </si>
+  <si>
+    <t>较小的无敌药水</t>
+  </si>
+  <si>
+    <t>无敌药水</t>
+  </si>
+  <si>
+    <t>石皮药水</t>
+  </si>
+  <si>
+    <t>法能药水</t>
+  </si>
+  <si>
+    <t>法术掌控药剂</t>
+  </si>
+  <si>
+    <t>秘法药水</t>
+  </si>
+  <si>
+    <t>愤怒施法药水</t>
+  </si>
+  <si>
+    <t>法术穿透药剂</t>
+  </si>
+  <si>
+    <t>不稳定的药剂</t>
+  </si>
+  <si>
+    <t>敏捷药水</t>
+  </si>
+  <si>
+    <t>敏锐药水</t>
+  </si>
+  <si>
+    <t>迅捷药水</t>
+  </si>
+  <si>
+    <t>简易治疗符咒</t>
+  </si>
+  <si>
+    <t>驱散术符咒</t>
+  </si>
+  <si>
+    <t>治疗结界符咒</t>
+  </si>
+  <si>
+    <t>心灵之火符咒</t>
+  </si>
+  <si>
+    <t>闪电链符咒</t>
+  </si>
+  <si>
+    <t>死亡之指符咒</t>
+  </si>
+  <si>
+    <t>生命虹吸符咒</t>
+  </si>
+  <si>
+    <t>恶魔符文</t>
+  </si>
+  <si>
+    <t>奇异的魔杖</t>
+  </si>
+  <si>
+    <t>Potion of Leech</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potion of Regeneration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potion of Clarity Omen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source of Mana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potion of Tranquility</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greater Potion of HP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vial of Archmage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vial of Battlemaster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emperor's New Vial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vial of Conversion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vial of Shield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vial of Rampart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potion of Dodge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesser Potion of Invulnerability</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potion of Stone Skin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potion of Magic Power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vial of Spell Mastery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potion of Arcane</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potion of Raging Caster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vial of Spell Piercing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vial of Unstable Power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potion of Agility</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potion of Keen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potion of Swiftness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demonic Rune</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charm of Simple Heal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charm of Dispel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charm of Healing Ward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charm of Inner Fire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charm of Chain Lightning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charm of Death Finger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charm of Siphon Life</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strange Wand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lkey_item_arans_counter_spell_scroll</t>
+  </si>
+  <si>
+    <t>lkey_item_speed_scroll</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_frenzy</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_protection</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_mana</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_healing</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_armageddon</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_beasts</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_slaying</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_sanctuary</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_insulation</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_dispel</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_mass_teleportation</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_corruption</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_banshee</t>
+  </si>
+  <si>
+    <t>lkey_item_scroll_of_weakness</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_hp</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_mana</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_leech</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_regeneration</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_clarity_omen</t>
+  </si>
+  <si>
+    <t>lkey_item_source_of_mana</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_tranquility</t>
+  </si>
+  <si>
+    <t>lkey_item_greater_potion_of_hp</t>
+  </si>
+  <si>
+    <t>lkey_item_vial_of_archmage</t>
+  </si>
+  <si>
+    <t>lkey_item_vial_of_battlemaster</t>
+  </si>
+  <si>
+    <t>lkey_item_emperors_new_vial</t>
+  </si>
+  <si>
+    <t>lkey_item_vial_of_conversion</t>
+  </si>
+  <si>
+    <t>lkey_item_vial_of_shield</t>
+  </si>
+  <si>
+    <t>lkey_item_vial_of_rampart</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_dodge</t>
+  </si>
+  <si>
+    <t>lkey_item_lesser_potion_of_invulnerability</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_invulnerability</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_stone_skin</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_magic_power</t>
+  </si>
+  <si>
+    <t>lkey_item_vial_of_spell_mastery</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_arcane</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_raging_caster</t>
+  </si>
+  <si>
+    <t>lkey_item_vial_of_spell_piercing</t>
+  </si>
+  <si>
+    <t>lkey_item_vial_of_unstable_power</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_agility</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_keen</t>
+  </si>
+  <si>
+    <t>lkey_item_potion_of_swiftness</t>
+  </si>
+  <si>
+    <t>lkey_item_charm_of_simple_heal</t>
+  </si>
+  <si>
+    <t>lkey_item_charm_of_dispel</t>
+  </si>
+  <si>
+    <t>lkey_item_charm_of_healing_ward</t>
+  </si>
+  <si>
+    <t>lkey_item_charm_of_inner_fire</t>
+  </si>
+  <si>
+    <t>lkey_item_charm_of_chain_lightning</t>
+  </si>
+  <si>
+    <t>lkey_item_charm_of_death_finger</t>
+  </si>
+  <si>
+    <t>lkey_item_charm_of_siphon_life</t>
+  </si>
+  <si>
+    <t>lkey_item_demonic_rune</t>
+  </si>
+  <si>
+    <t>lkey_item_strange_wand</t>
+  </si>
+  <si>
+    <t>使用：打断附近300码范围内所有敌军的施法。</t>
+  </si>
+  <si>
+    <t>使用：提升附近900码范围内所有友军的移动速度200。</t>
+  </si>
+  <si>
+    <t>Use: Increase attack speed and spell haste by 30% for all allies nearby. Lasts for 15 seconds.</t>
+  </si>
+  <si>
+    <t>使用：提升附近900码范围内所有友军的攻击速度和施法速度30%。</t>
+  </si>
+  <si>
+    <t>Use: All allies nearby takes 50% less damage. Lasts for 5 seconds.</t>
+  </si>
+  <si>
+    <t>使用：提升附近600码范围内所有友军的物理免伤8点。</t>
+  </si>
+  <si>
+    <t>Use: Replenish 30% mana for all allies nearby.</t>
+  </si>
+  <si>
+    <t>使用：恢复附近所有友军30%的法力值。</t>
+  </si>
+  <si>
+    <t>使用：恢复附近950码范围内所有友军750点生命值。</t>
+  </si>
+  <si>
+    <t>使用：召唤一阵陨石轰炸目标区域，对里面的所有目标造成毁灭性的打击。</t>
+  </si>
+  <si>
+    <t>使用：提升附近900码范围内所有友军15点攻击强度，持续20秒。</t>
+  </si>
+  <si>
+    <t>使用：使附近900码范围内所有友军造成的伤害和治疗效果提高50%，持续10秒。</t>
+  </si>
+  <si>
+    <t>使用：使附近450码范围内的所有友军免受任何伤害，但是也无法做出任何动作，持续8秒。</t>
+  </si>
+  <si>
+    <t>Use: Opens a barrier that will reflect all spell. Lasts for 10 seconds.</t>
+  </si>
+  <si>
+    <t>使用：开启一道法术反射屏障，使受保护的友军能反射法术，总共能反射8次，持续10秒。</t>
+  </si>
+  <si>
+    <t>Use: Dispel one buff or debuff from each enemy or ally within range every 2 second. Dispels 3 times.</t>
+  </si>
+  <si>
+    <t>使用：驱散450码范围内所有敌军或者友军目标身上的一个有益或者有害魔法效果。</t>
+  </si>
+  <si>
+    <t>使用：将附近600码范围内的所有友军传送到目标点。</t>
+  </si>
+  <si>
+    <t>使用：削弱600码范围内的所有敌人8点物理免伤。</t>
+  </si>
+  <si>
+    <t>使用：使附近600码范围内的所有敌军目标的命中率降低50%，持续8秒。</t>
+  </si>
+  <si>
+    <t>使用：使附近600码范围内所有敌军造成的伤害和治疗效果降低75%，持续10秒。</t>
+  </si>
+  <si>
+    <t>Use: Decrease all damage taken by 100%. Lasts for 8 seconds.</t>
+  </si>
+  <si>
+    <t>Use: Create an energy field at target area, all buffs and debuffs will no expire before the field fades. Lasts for 15 seconds.</t>
+  </si>
+  <si>
+    <t>Use: Counters all enemy spells within 300 yards.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Increases 200 movespeed for all allies within 900 yards.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Heal allies for 750 HP within 950 yards.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Summons waves of meteor shower to bombard target area, dealing devastating damage to all targets.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Increases 15 AP for all allies within 900 yards, lasts for 20s.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Increases 50% all damage and healing dealt for all allies within 900 yards, lasts for 10s.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Makes all nearby allies within 450 yards immune to any damage, but unable to take any actions for 8 seconds.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Teleports all nearby friendly forces within 600 yards to the target point.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Weaken all enemies within 600 yards from physical damage by 8 points.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Reduces the hit rate of all nearby enemy targets within 600 yards by 50% for 8 seconds.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Reduces the damage and healing effects of all nearby enemies within 600 yards by 75% for 10 seconds.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Restores 200-400 HP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用：回复200-400HP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用：回复100-300MP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用：+40%吸血，持续10秒。</t>
+  </si>
+  <si>
+    <t>使用：+10生命回复，持续75秒。</t>
+  </si>
+  <si>
+    <t>使用：+5法力恢复，持续120秒。</t>
+  </si>
+  <si>
+    <t>使用：每秒回复30%的法力值，持续5秒。</t>
+  </si>
+  <si>
+    <t>使用：造成的仇恨降低20%，持续30秒。</t>
+  </si>
+  <si>
+    <t>使用：+100%法力上限，持续30秒。</t>
+  </si>
+  <si>
+    <t>使用：+300生命上限，持续20秒。</t>
+  </si>
+  <si>
+    <t>使用：使你觉得你的战斗力得到了极大的提升。</t>
+  </si>
+  <si>
+    <t>使用：使你可以吸收1000点伤害，持续15秒。</t>
+  </si>
+  <si>
+    <t>使用：招架几率提升100%，持续10秒。</t>
+  </si>
+  <si>
+    <t>使用：躲闪几率提高15%，持续15秒。</t>
+  </si>
+  <si>
+    <t>使用：4秒免伤100%。</t>
+  </si>
+  <si>
+    <t>使用：8秒免伤100%。</t>
+  </si>
+  <si>
+    <t>使用：10物理免伤，15秒。</t>
+  </si>
+  <si>
+    <t>使用：+20法术强度，持续15秒</t>
+  </si>
+  <si>
+    <t>使用：造成法术伤害以后，有概率施展秘法弹</t>
+  </si>
+  <si>
+    <t>使用：+20%法术暴击，持续5-20秒</t>
+  </si>
+  <si>
+    <t>使用：+15敏捷，持续15秒</t>
+  </si>
+  <si>
+    <t>使用：+10%暴击，持续15秒.</t>
+  </si>
+  <si>
+    <t>使用：+15%攻击速度，持续15秒</t>
+  </si>
+  <si>
+    <t>使用：治疗目标200点生命值.CD45秒。8次。</t>
+  </si>
+  <si>
+    <t>使用：驱散一个有益或有害法术。10-15次。</t>
+  </si>
+  <si>
+    <t>使用：每秒治疗100点生命值，持续10秒。3-7次。</t>
+  </si>
+  <si>
+    <t>使用：+8物理免伤，+10AP，持续15秒。8-12次</t>
+  </si>
+  <si>
+    <t>使用：1000dmg，逐个减半，4次。3-5次。</t>
+  </si>
+  <si>
+    <t>使用：1500dmg，红色闪电。3-5次。</t>
+  </si>
+  <si>
+    <t>使用：每3秒从目标吸取200点生命值到自身。5-9次。</t>
+  </si>
+  <si>
+    <t>使用：将20%的生命值转化为3倍的法力值。4-8次。</t>
+  </si>
+  <si>
+    <t>使用：在指定地点创造一片魔法力场，任何法术效果都不会在魔法力场失效之前消失，持续15秒。</t>
+  </si>
+  <si>
+    <t>Use: Restores 100-300MP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: +40% lifesteal for 10 seconds.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: +10 health regeneration for 75 seconds.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: +5 mana regeneration for 120 seconds.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Recover 30% of mana every second for 5 seconds.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Reduces the hatred caused by 20% for 30 seconds.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Restore 400-800 health points.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: +100% mana limit for 30 seconds.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: +300 health limit, lasts 20 seconds.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Makes you feel that your combat effectiveness has been greatly improved.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: 10% of damaged life is converted into increased mana, and 10% of mana is absorbed on hit. Lasts 10 seconds.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用：10%受损的生命转为法力的提升，命中吸取10%法力值，持续10秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Allows you to absorb 1000 points of damage for 15 seconds.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Increase parry chance by 100% for 10 seconds.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Increases dodge chance by 15% for 15 seconds.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: 100% damage-free for 4 seconds.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: 10 physical damage reduction, 15 seconds.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: +20 spell power for 15 seconds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Spell power is increased by 100%, spell haste is increased by 100%, lasting 2 seconds.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: After causing spell damage, there is a chance to cast arcane bullets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: +10% spell haste, lasts 15 seconds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用：+10%法术急速，持续15秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Spell damage The target's spell damage is increased by 3%. Lasts 20 seconds.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: +20% spell critical strike, lasts 5-20 seconds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用：法术伤害目标受到的法伤提升3%，持续20秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用：法术强度提升100%，法术急速提升100%，持续2秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用：回复400-800生命值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: +15 Agility for 15 seconds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: +10% critical strike for 15 seconds.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: +15% attack speed for 15 seconds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Heal the target's health by 200 points. CD45 seconds. 8 times.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Dispel a helpful or harmful spell. 10-15 times.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Heals 100 health points per second for 10 seconds. 3-7 times.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: +8 physical damage reduction, +10AP, lasts 15 seconds. 8-12 times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usage: 1000dmg, halved one by one, 4 times. 3-5 times.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: 1500dmg, red lightning. 3-5 times.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Drain 200 health points from the target to yourself every 3 seconds. 5-9 times.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use: Convert 20% of health into 3x mana. 4-8 times.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lkey_attr_arans_counter_spell_scroll</t>
+  </si>
+  <si>
+    <t>lkey_attr_speed_scroll</t>
+  </si>
+  <si>
+    <t>lkey_attr_scroll_of_frenzy</t>
+  </si>
+  <si>
+    <t>lkey_attr_scroll_of_protection</t>
+  </si>
+  <si>
+    <t>lkey_attr_scroll_of_mana</t>
+  </si>
+  <si>
+    <t>lkey_attr_scroll_of_healing</t>
+  </si>
+  <si>
+    <t>lkey_attr_scroll_of_armageddon</t>
+  </si>
+  <si>
+    <t>lkey_attr_scroll_of_beasts</t>
+  </si>
+  <si>
+    <t>lkey_attr_scroll_of_slaying</t>
+  </si>
+  <si>
+    <t>lkey_attr_scroll_of_sanctuary</t>
+  </si>
+  <si>
+    <t>lkey_attr_scroll_of_insulation</t>
+  </si>
+  <si>
+    <t>lkey_attr_scroll_of_dispel</t>
+  </si>
+  <si>
+    <t>lkey_attr_scroll_of_mass_teleportation</t>
+  </si>
+  <si>
+    <t>lkey_attr_scroll_of_corruption</t>
+  </si>
+  <si>
+    <t>lkey_attr_scroll_of_banshee</t>
+  </si>
+  <si>
+    <t>lkey_attr_scroll_of_weakness</t>
+  </si>
+  <si>
+    <t>lkey_attr_potion_of_hp</t>
+  </si>
+  <si>
+    <t>lkey_attr_potion_of_mana</t>
+  </si>
+  <si>
+    <t>lkey_attr_potion_of_leech</t>
+  </si>
+  <si>
+    <t>lkey_attr_potion_of_regeneration</t>
+  </si>
+  <si>
+    <t>lkey_attr_potion_of_clarity_omen</t>
+  </si>
+  <si>
+    <t>lkey_attr_source_of_mana</t>
+  </si>
+  <si>
+    <t>lkey_attr_potion_of_tranquility</t>
+  </si>
+  <si>
+    <t>lkey_attr_greater_potion_of_hp</t>
+  </si>
+  <si>
+    <t>lkey_attr_vial_of_archmage</t>
+  </si>
+  <si>
+    <t>lkey_attr_vial_of_battlemaster</t>
+  </si>
+  <si>
+    <t>lkey_attr_emperors_new_vial</t>
+  </si>
+  <si>
+    <t>lkey_attr_vial_of_conversion</t>
+  </si>
+  <si>
+    <t>lkey_attr_vial_of_shield</t>
+  </si>
+  <si>
+    <t>lkey_attr_vial_of_rampart</t>
+  </si>
+  <si>
+    <t>lkey_attr_potion_of_dodge</t>
+  </si>
+  <si>
+    <t>lkey_attr_lesser_potion_of_invulnerability</t>
+  </si>
+  <si>
+    <t>lkey_attr_potion_of_invulnerability</t>
+  </si>
+  <si>
+    <t>lkey_attr_potion_of_stone_skin</t>
+  </si>
+  <si>
+    <t>lkey_attr_potion_of_magic_power</t>
+  </si>
+  <si>
+    <t>lkey_attr_vial_of_spell_mastery</t>
+  </si>
+  <si>
+    <t>lkey_attr_potion_of_arcane</t>
+  </si>
+  <si>
+    <t>lkey_attr_potion_of_raging_caster</t>
+  </si>
+  <si>
+    <t>lkey_attr_vial_of_spell_piercing</t>
+  </si>
+  <si>
+    <t>lkey_attr_vial_of_unstable_power</t>
+  </si>
+  <si>
+    <t>lkey_attr_potion_of_agility</t>
+  </si>
+  <si>
+    <t>lkey_attr_potion_of_keen</t>
+  </si>
+  <si>
+    <t>lkey_attr_potion_of_swiftness</t>
+  </si>
+  <si>
+    <t>lkey_attr_charm_of_simple_heal</t>
+  </si>
+  <si>
+    <t>lkey_attr_charm_of_dispel</t>
+  </si>
+  <si>
+    <t>lkey_attr_charm_of_healing_ward</t>
+  </si>
+  <si>
+    <t>lkey_attr_charm_of_inner_fire</t>
+  </si>
+  <si>
+    <t>lkey_attr_charm_of_chain_lightning</t>
+  </si>
+  <si>
+    <t>lkey_attr_charm_of_death_finger</t>
+  </si>
+  <si>
+    <t>lkey_attr_charm_of_siphon_life</t>
+  </si>
+  <si>
+    <t>lkey_attr_demonic_rune</t>
+  </si>
+  <si>
+    <t>lkey_attr_strange_wand</t>
+  </si>
+  <si>
+    <t>坚韧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻痹毒药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风暴之力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡缠绕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐烂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脆弱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟缓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚弱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫毒之毒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银色新月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受诅咒者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战歌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗召唤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖术力量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好运</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迸发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远古疯狂。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲提升。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法速度提升。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度提升。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到持续性的法术伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的伤害提升。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到持续性的物理伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击几率提升100%。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的治疗降低。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击命中率降低。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲降低。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度降低。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度降低。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成的伤害和治疗效果降低。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力提升。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击强度提升。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的法术伤害提升。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成的伤害和治疗效果提升，受到的治疗效果提升。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命提升。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术强度提升。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲闪几率提升。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度提升。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度提升，受到的伤害提升。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃兰总是能在法师决斗中胜出，也许是因为他很有钱。</t>
+  </si>
+  <si>
+    <t>“埃拉西亚的覆灭。”</t>
+  </si>
+  <si>
+    <t>有些在战场中看起来很厉害但是从未出过手的人物也许是拿这个卷轴伪装的。</t>
+  </si>
+  <si>
+    <t>成本低廉，但是很实用的卷轴。</t>
+  </si>
+  <si>
+    <t>“如果能穿越障碍就不只这个价了。”</t>
+  </si>
+  <si>
+    <t>使用这个卷轴的时候，记得捂住耳朵。</t>
+  </si>
+  <si>
+    <t>萨尔花了很多年的时间才弄明白当年集中营里面的虚弱事件竟然是有人利用这张卷轴在捣鬼！</t>
+  </si>
+  <si>
+    <t>似乎有奇异的声音在呼唤，你敢回应吗？</t>
+  </si>
+  <si>
+    <t>蚀刻在这些魔杖上复杂的魔法阵以一种不可思议的方式维持着平衡，你很难想象出一种既能引导出里面的魔力又不摧毁这些魔杖的方法。</t>
   </si>
 </sst>
 </file>
@@ -2823,16 +4446,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C178" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="44.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="27.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
@@ -3868,7 +5491,7 @@
         <v>322</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70:B130" si="1">ROW()-4</f>
+        <f t="shared" ref="B70:B133" si="1">ROW()-4</f>
         <v>66</v>
       </c>
       <c r="C70" t="s">
@@ -4778,18 +6401,880 @@
         <v>244</v>
       </c>
     </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="C131" t="s">
+        <v>900</v>
+      </c>
+      <c r="D131" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="C132" t="s">
+        <v>901</v>
+      </c>
+      <c r="D132" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="C133" t="s">
+        <v>902</v>
+      </c>
+      <c r="D133" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B134">
+        <f t="shared" ref="B134:B191" si="2">ROW()-4</f>
+        <v>130</v>
+      </c>
+      <c r="C134" t="s">
+        <v>903</v>
+      </c>
+      <c r="D134" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="C135" t="s">
+        <v>904</v>
+      </c>
+      <c r="D135" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="C136" t="s">
+        <v>908</v>
+      </c>
+      <c r="D136" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="C137" t="s">
+        <v>909</v>
+      </c>
+      <c r="D137" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="C138" t="s">
+        <v>910</v>
+      </c>
+      <c r="D138" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="C139" t="s">
+        <v>911</v>
+      </c>
+      <c r="D139" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="C140" t="s">
+        <v>912</v>
+      </c>
+      <c r="D140" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="C141" t="s">
+        <v>905</v>
+      </c>
+      <c r="D141" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="C142" t="s">
+        <v>906</v>
+      </c>
+      <c r="D142" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="C143" t="s">
+        <v>913</v>
+      </c>
+      <c r="D143" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="C144" t="s">
+        <v>914</v>
+      </c>
+      <c r="D144" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="C145" t="s">
+        <v>915</v>
+      </c>
+      <c r="D145" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="C146" t="s">
+        <v>916</v>
+      </c>
+      <c r="D146" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="C147" t="s">
+        <v>917</v>
+      </c>
+      <c r="D147" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="C148" t="s">
+        <v>918</v>
+      </c>
+      <c r="D148" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="C149" t="s">
+        <v>971</v>
+      </c>
+      <c r="D149" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="C150" t="s">
+        <v>972</v>
+      </c>
+      <c r="D150" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="C151" t="s">
+        <v>973</v>
+      </c>
+      <c r="D151" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="C152" t="s">
+        <v>974</v>
+      </c>
+      <c r="D152" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="C153" t="s">
+        <v>975</v>
+      </c>
+      <c r="D153" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="C154" t="s">
+        <v>976</v>
+      </c>
+      <c r="D154" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="C155" t="s">
+        <v>977</v>
+      </c>
+      <c r="D155" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="C156" t="s">
+        <v>978</v>
+      </c>
+      <c r="D156" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="C157" t="s">
+        <v>979</v>
+      </c>
+      <c r="D157" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="C158" t="s">
+        <v>980</v>
+      </c>
+      <c r="D158" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="C159" t="s">
+        <v>981</v>
+      </c>
+      <c r="D159" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="C160" t="s">
+        <v>982</v>
+      </c>
+      <c r="D160" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="C161" t="s">
+        <v>983</v>
+      </c>
+      <c r="D161" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="C162" t="s">
+        <v>984</v>
+      </c>
+      <c r="D162" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="C163" t="s">
+        <v>907</v>
+      </c>
+      <c r="D163" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="C164" t="s">
+        <v>985</v>
+      </c>
+      <c r="D164" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="C165" t="s">
+        <v>986</v>
+      </c>
+      <c r="D165" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="C166" t="s">
+        <v>987</v>
+      </c>
+      <c r="D166" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="C167" t="s">
+        <v>988</v>
+      </c>
+      <c r="D167" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="C168" t="s">
+        <v>989</v>
+      </c>
+      <c r="D168" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="C169" t="s">
+        <v>990</v>
+      </c>
+      <c r="D169" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="C170" t="s">
+        <v>991</v>
+      </c>
+      <c r="D170" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="C171" t="s">
+        <v>992</v>
+      </c>
+      <c r="D171" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="C172" t="s">
+        <v>993</v>
+      </c>
+      <c r="D172" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="C173" t="s">
+        <v>994</v>
+      </c>
+      <c r="D173" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="C174" t="s">
+        <v>996</v>
+      </c>
+      <c r="D174" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="C175" t="s">
+        <v>997</v>
+      </c>
+      <c r="D175" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="C176" t="s">
+        <v>998</v>
+      </c>
+      <c r="D176" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="C177" t="s">
+        <v>999</v>
+      </c>
+      <c r="D177" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D178" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D179" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D180" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="C181" t="s">
+        <v>995</v>
+      </c>
+      <c r="D181" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D182" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="B183">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="B184">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="B185">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="B186">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="B187">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="B188">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="B189">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="B190">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="B191">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1266</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9DF4C1-75AE-4DFD-A39E-52C4C78C52C6}">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B155" sqref="B103:B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5830,7 +8315,7 @@
         <v>455</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70:B103" si="1">ROW()+995</f>
+        <f t="shared" ref="B70:B133" si="1">ROW()+995</f>
         <v>1065</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -6333,6 +8818,786 @@
       </c>
       <c r="D103" s="3" t="s">
         <v>684</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="1"/>
+        <v>1099</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="1"/>
+        <v>1101</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="1"/>
+        <v>1102</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="1"/>
+        <v>1103</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="1"/>
+        <v>1104</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="1"/>
+        <v>1105</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="1"/>
+        <v>1106</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="1"/>
+        <v>1107</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="1"/>
+        <v>1108</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="1"/>
+        <v>1109</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="1"/>
+        <v>1110</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="1"/>
+        <v>1111</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="1"/>
+        <v>1112</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="1"/>
+        <v>1113</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="1"/>
+        <v>1114</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="1"/>
+        <v>1115</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="1"/>
+        <v>1116</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="1"/>
+        <v>1117</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="1"/>
+        <v>1118</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="1"/>
+        <v>1119</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="1"/>
+        <v>1120</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="1"/>
+        <v>1121</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="1"/>
+        <v>1122</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="1"/>
+        <v>1123</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="1"/>
+        <v>1124</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="1"/>
+        <v>1125</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="1"/>
+        <v>1126</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="1"/>
+        <v>1127</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="1"/>
+        <v>1128</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B134">
+        <f t="shared" ref="B134:B155" si="2">ROW()+995</f>
+        <v>1129</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="2"/>
+        <v>1130</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="2"/>
+        <v>1131</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="2"/>
+        <v>1132</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="2"/>
+        <v>1133</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="2"/>
+        <v>1134</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="2"/>
+        <v>1135</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="2"/>
+        <v>1136</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="2"/>
+        <v>1137</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="2"/>
+        <v>1138</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="2"/>
+        <v>1139</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="2"/>
+        <v>1140</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="2"/>
+        <v>1141</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="2"/>
+        <v>1142</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="2"/>
+        <v>1143</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="2"/>
+        <v>1144</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="2"/>
+        <v>1145</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="2"/>
+        <v>1146</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="2"/>
+        <v>1147</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="2"/>
+        <v>1148</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="2"/>
+        <v>1149</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="2"/>
+        <v>1150</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>1121</v>
       </c>
     </row>
   </sheetData>
@@ -6343,16 +9608,689 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17C24C5-39A1-4291-B595-349DC6772DF9}">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>780</v>
+      </c>
+      <c r="B5">
+        <f>ROW()+1995</f>
+        <v>2000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>820</v>
+      </c>
+      <c r="D5" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>781</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:B44" si="0">ROW()+1995</f>
+        <v>2001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>821</v>
+      </c>
+      <c r="D6" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>782</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2002</v>
+      </c>
+      <c r="C7" t="s">
+        <v>822</v>
+      </c>
+      <c r="D7" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>783</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+      <c r="C8" t="s">
+        <v>823</v>
+      </c>
+      <c r="D8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>784</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="C9" t="s">
+        <v>824</v>
+      </c>
+      <c r="D9" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>785</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="C10" t="s">
+        <v>825</v>
+      </c>
+      <c r="D10" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>786</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="C11" t="s">
+        <v>826</v>
+      </c>
+      <c r="D11" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>787</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="C12" t="s">
+        <v>827</v>
+      </c>
+      <c r="D12" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>788</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="C13" t="s">
+        <v>828</v>
+      </c>
+      <c r="D13" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>789</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="C14" t="s">
+        <v>829</v>
+      </c>
+      <c r="D14" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>790</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="C15" t="s">
+        <v>830</v>
+      </c>
+      <c r="D15" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>791</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="C16" t="s">
+        <v>831</v>
+      </c>
+      <c r="D16" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>792</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="C17" t="s">
+        <v>832</v>
+      </c>
+      <c r="D17" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>793</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="C18" t="s">
+        <v>833</v>
+      </c>
+      <c r="D18" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>794</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="C19" t="s">
+        <v>834</v>
+      </c>
+      <c r="D19" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>795</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="C20" t="s">
+        <v>835</v>
+      </c>
+      <c r="D20" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>796</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="C21" t="s">
+        <v>836</v>
+      </c>
+      <c r="D21" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>797</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="C22" t="s">
+        <v>837</v>
+      </c>
+      <c r="D22" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>798</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="C23" t="s">
+        <v>838</v>
+      </c>
+      <c r="D23" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>799</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="C24" t="s">
+        <v>839</v>
+      </c>
+      <c r="D24" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>800</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="C25" t="s">
+        <v>840</v>
+      </c>
+      <c r="D25" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>801</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="C26" t="s">
+        <v>841</v>
+      </c>
+      <c r="D26" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>802</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="C27" t="s">
+        <v>842</v>
+      </c>
+      <c r="D27" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>803</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="C28" t="s">
+        <v>843</v>
+      </c>
+      <c r="D28" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>804</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="C29" t="s">
+        <v>844</v>
+      </c>
+      <c r="D29" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>805</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="C30" t="s">
+        <v>845</v>
+      </c>
+      <c r="D30" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>806</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="C31" t="s">
+        <v>846</v>
+      </c>
+      <c r="D31" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>807</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="C32" t="s">
+        <v>847</v>
+      </c>
+      <c r="D32" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>808</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="C33" t="s">
+        <v>848</v>
+      </c>
+      <c r="D33" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>809</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="C34" t="s">
+        <v>849</v>
+      </c>
+      <c r="D34" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>810</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="C35" t="s">
+        <v>850</v>
+      </c>
+      <c r="D35" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>811</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="C36" t="s">
+        <v>851</v>
+      </c>
+      <c r="D36" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>812</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="C37" t="s">
+        <v>852</v>
+      </c>
+      <c r="D37" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>813</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="C38" t="s">
+        <v>853</v>
+      </c>
+      <c r="D38" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>814</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="C39" t="s">
+        <v>854</v>
+      </c>
+      <c r="D39" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>815</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="C40" t="s">
+        <v>855</v>
+      </c>
+      <c r="D40" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>816</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="C41" t="s">
+        <v>856</v>
+      </c>
+      <c r="D41" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>817</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="C42" t="s">
+        <v>857</v>
+      </c>
+      <c r="D42" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>818</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="C43" t="s">
+        <v>858</v>
+      </c>
+      <c r="D43" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>819</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="C44" t="s">
+        <v>859</v>
+      </c>
+      <c r="D44" t="s">
+        <v>892</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324345F0-B370-436E-9C67-CF524D45221A}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6418,6 +10356,9 @@
       <c r="C5" t="s">
         <v>687</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>1212</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -6430,6 +10371,9 @@
       <c r="C6" t="s">
         <v>688</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>1213</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
@@ -6442,6 +10386,9 @@
       <c r="C7" t="s">
         <v>689</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -6454,6 +10401,9 @@
       <c r="C8" t="s">
         <v>690</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>1215</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
@@ -6466,6 +10416,9 @@
       <c r="C9" t="s">
         <v>691</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>1216</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -6478,6 +10431,9 @@
       <c r="C10" t="s">
         <v>692</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>1217</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
@@ -6490,6 +10446,9 @@
       <c r="C11" t="s">
         <v>693</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>1218</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
@@ -6502,6 +10461,9 @@
       <c r="C12" t="s">
         <v>694</v>
       </c>
+      <c r="D12" s="3" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
@@ -6514,6 +10476,9 @@
       <c r="C13" t="s">
         <v>695</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>1220</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
@@ -6526,6 +10491,9 @@
       <c r="C14" t="s">
         <v>696</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>1221</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
@@ -6538,6 +10506,9 @@
       <c r="C15" t="s">
         <v>697</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>1222</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
@@ -6550,8 +10521,11 @@
       <c r="C16" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="3" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>744</v>
       </c>
@@ -6562,8 +10536,11 @@
       <c r="C17" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="3" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>745</v>
       </c>
@@ -6574,8 +10551,11 @@
       <c r="C18" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="3" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>746</v>
       </c>
@@ -6586,8 +10566,11 @@
       <c r="C19" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="3" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>747</v>
       </c>
@@ -6598,8 +10581,11 @@
       <c r="C20" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="3" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>748</v>
       </c>
@@ -6610,8 +10596,11 @@
       <c r="C21" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="3" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>749</v>
       </c>
@@ -6622,8 +10611,11 @@
       <c r="C22" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="3" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>750</v>
       </c>
@@ -6634,8 +10626,11 @@
       <c r="C23" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="3" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>751</v>
       </c>
@@ -6646,8 +10641,11 @@
       <c r="C24" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="3" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>752</v>
       </c>
@@ -6658,8 +10656,11 @@
       <c r="C25" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="3" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>753</v>
       </c>
@@ -6670,8 +10671,11 @@
       <c r="C26" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="3" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>754</v>
       </c>
@@ -6682,8 +10686,11 @@
       <c r="C27" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>755</v>
       </c>
@@ -6694,8 +10701,11 @@
       <c r="C28" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="3" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>756</v>
       </c>
@@ -6706,8 +10716,11 @@
       <c r="C29" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="3" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>757</v>
       </c>
@@ -6718,8 +10731,11 @@
       <c r="C30" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="3" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>758</v>
       </c>
@@ -6730,8 +10746,11 @@
       <c r="C31" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="3" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>759</v>
       </c>
@@ -6742,8 +10761,11 @@
       <c r="C32" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="3" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>760</v>
       </c>
@@ -6754,8 +10776,11 @@
       <c r="C33" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="3" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>761</v>
       </c>
@@ -6766,8 +10791,11 @@
       <c r="C34" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="3" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>762</v>
       </c>
@@ -6778,8 +10806,11 @@
       <c r="C35" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="3" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>763</v>
       </c>
@@ -6790,8 +10821,11 @@
       <c r="C36" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="3" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>764</v>
       </c>
@@ -6802,8 +10836,11 @@
       <c r="C37" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="3" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>765</v>
       </c>
@@ -6814,8 +10851,11 @@
       <c r="C38" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="3" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>766</v>
       </c>
@@ -6826,8 +10866,11 @@
       <c r="C39" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="3" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>767</v>
       </c>
@@ -6838,8 +10881,11 @@
       <c r="C40" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="3" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>768</v>
       </c>
@@ -6850,8 +10896,11 @@
       <c r="C41" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="3" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>769</v>
       </c>
@@ -6862,8 +10911,11 @@
       <c r="C42" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="3" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>770</v>
       </c>
@@ -6874,8 +10926,11 @@
       <c r="C43" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="3" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>771</v>
       </c>
@@ -6886,8 +10941,11 @@
       <c r="C44" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="3" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>772</v>
       </c>
@@ -6898,8 +10956,11 @@
       <c r="C45" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="3" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>773</v>
       </c>
@@ -6910,8 +10971,11 @@
       <c r="C46" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="3" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>774</v>
       </c>
@@ -6922,8 +10986,11 @@
       <c r="C47" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="3" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>775</v>
       </c>
@@ -6934,8 +11001,11 @@
       <c r="C48" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="3" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>776</v>
       </c>
@@ -6946,8 +11016,11 @@
       <c r="C49" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="3" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>777</v>
       </c>
@@ -6958,8 +11031,11 @@
       <c r="C50" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="3" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>778</v>
       </c>
@@ -6970,8 +11046,11 @@
       <c r="C51" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="3" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>779</v>
       </c>
@@ -6981,6 +11060,9 @@
       </c>
       <c r="C52" t="s">
         <v>731</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>1257</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/LanguageConfig.xlsx
+++ b/assets/data/LanguageConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\Documents\Warcraft III\Maps\Zulaman-WE\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\workspace\Zulaman-WE\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D72F5E-0ECD-4AF0-A352-876016A842CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D76AE2-BDFA-4DCE-9F07-05B538ED4160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="1301">
   <si>
     <t>语言Key</t>
   </si>
@@ -1569,7 +1569,7 @@
   </si>
   <si>
     <t>+{0} Strength</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0} Agility</t>
@@ -1594,151 +1594,151 @@
   </si>
   <si>
     <t>+{0}% Max HP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0}%生命</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0}%攻速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0}%暴击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0} Attack Power</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0}% Attack Critical</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0}% Attack Speed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0} Spell Power</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0}% Spell Critical</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0}% Spell Haste</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0}%法术暴击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0}%法术急速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0} Strength/Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0} All Stats</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0} Max HP/Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0} Attack Power/Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0} Armor/Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0}% Block Chance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0}%格挡率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0} Block Points</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0}% Dodge Chance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0}%闪避</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>-{0} All Damage Taken</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>-{0} Magical Damage Taken</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0}% Damage And Healing Dealt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0}%伤害和治疗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0}%受到的治疗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0}% Healing Taken</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Regen {0} MP Per Second</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Regen {0} HP Per Second</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Lost {0} HP Per Second During Combat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>战斗中流失{0}生命/秒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0} Movement Speed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0} Movement Speed/Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0}% Mana Stolen Per Hit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增强物品特效+{0}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Improve Item Special Power</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0}%法力吸取</t>
@@ -1844,35 +1844,35 @@
   </si>
   <si>
     <t>+{0} Life Stolen Per Hit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>+{0} Life And Mana Stolen Per Hit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Deals {0} Extra Magical Damage Per Hit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Deals {0} Extra Magical Damage Per Hit, Scaled Up By Target HP Lost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>One-Shot Target When It's HP Is Less Than Yours</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>秒杀生命值少于你的目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>造成{0}额外法术伤害/击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>造成{0}额外法术伤害/击，目标生命越少伤害越高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Marrow Squeeze Extends The Pain On Target By {0} Seconds</t>
@@ -1963,79 +1963,79 @@
   </si>
   <si>
     <t>Converts Your Normal Attacks To Magical Damage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>普通攻击转化为法术攻击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Holy Shock Always Deals Critical Healing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>神圣冲击必定造成极效治疗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Removes Weakness Effect Of Shield</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>移除护盾的灵魂虚弱效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Flash Light Dispels One Debuff From Target</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>圣光闪现可以驱散一个有害法术效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Regens MP From {0}% Of The Damage Taken</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>受伤的{0}%转化为法力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Teleports To An Ally</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使用：传送到一个友军位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Regenerates {0}% More Valor Points</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>产生{0}%更多的勇气点数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sinister Strike And Eviscerate Deal {0}% Extra Damage To Target Below 30% Max HP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>邪恶攻击和剔骨对低于30%生命的目标造成{0}%额外伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Deals {0}% Extra Damage To Non-hero Targets</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>对非英雄目标造成{0}%额外伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Reduce Cooldown Of Instant Regrowth By {0} Seconds (Unique)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>减少瞬发愈合的冷却时间{0}秒（唯一）</t>
@@ -2048,163 +2048,163 @@
   </si>
   <si>
     <t>Absorbs {0} HP From All Enemies Nearby Per Second</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Prayer Of Healing Increases {0} Armor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Survival Instincts Provides {0} Extra HP And Max HP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>求生本能可以提供{0}%额外的生命和生命上限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Shield Of Sin'dorei Provides {0} Extra Damage Reduction, And Taunts All Enemies Nearby</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Reduce Cooldown Of Survival Instincts By {0} Seconds (Unique)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Storm Lash Has {0}% Extra Chance To Cooldown Earth Shock (Unique)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>风暴鞭笞有{0}%额外概率冷却地震术（唯一）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sinister Strike Has A {0}% Chance To Paralyze Target, Reduce Target Spell Haste By 20% And Gain An Extra Combo Point</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>邪恶攻击有{0}%概率麻痹敌人，降低20%法术急速并获得一个额外连击点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Number Of Dark Arrows Increased By {0} (Unique)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Increase Ice Spell Damage By {0}%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>冰系法术伤害增加{0}%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{0}%概率对暴风雪击中的目标立即施放寒冰箭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>攻击时：每击增加1%攻速，最多叠加{0}层，持续3秒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>On Attack: Increase Attack Speed By 1% Per Attack, Up To {0} Stacks, Lasts For 3 Seconds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>On Attack: {0}% Chance To Knock Back Target</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>On Attack: {0}% Chance To Increase 30% Attack Speed, Lasts For 5 Seconds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>攻击时：{0}%概率击退目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>攻击时：{0}%概率增加30%攻速，持续5秒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>On Attack: {0}% Chance To Increase 100% Attack Critical Chance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>攻击时：{0}%概率提升100%暴击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>On Attack: Decrease Target Healing Taken By {0}%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>攻击时：目标受到的治疗降低{0}%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>On Attack: Decrease Target Attack Accuracy By {0}%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>攻击时：目标命中率降低{0}%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>On Attack: Decrease Target Attack Speed By {0}%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>攻击时：目标攻速降低{0}%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>On Attack: Decrease Target Damage And Healing Dealt By {0}%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>攻击时：目标造成的伤害和治疗效果降低{0}%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Grant Aura Of Conviction: All Enemies Within 600 Yards Take {0}% More Magical Damage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>赋予信念光环：600范围内的敌人受到{0}%额外魔法伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Grant Aura Of Warsong: All Allies Deal {0}% More Damage And Healing, Take 10% More Healing Within 600 Yards</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>赋予战歌光环：600范围内的友军造成{0}%更多的伤害和治疗，受到的治疗效果提升10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Increase Attack Speed By 100%, Take {0}% Extra Damage (Unique)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使用：增加100%攻速，受到{0}%额外伤害（唯一）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>阿尔萨斯的堕落</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>赞达拉的崛起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>On Attack: 15% Chance To Cast Death Coil, Dealing {0} Magical Damage, Target Takes 3% Extra Damage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>攻击时：15%概率施展死亡缠绕，对目标造成{0}点魔法伤害并使其受到的伤害提高3%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Fortitude</t>
@@ -2796,79 +2796,79 @@
   </si>
   <si>
     <t>强健之</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>持久之</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>智慧的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>耐力的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>冠军的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>射手的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>牧师的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>据点的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吸血鬼的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>魅魔的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>微光之</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>智力之</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>活力之</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>耐久之</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>技巧之</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>巫术之</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>坚韧之</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Aran's Counter Spell Scroll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Speed Scroll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Scroll of Frenzy</t>
@@ -2890,47 +2890,47 @@
   </si>
   <si>
     <t>Scroll of Healing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Scroll of Armageddon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Scroll of Beasts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Scroll of Slaying</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Scroll of Sanctuary</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Scroll of Mass Teleportation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Scroll of Corruption</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Scroll of Banshee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Scroll of Weakness</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Potion of HP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Potion of Mana</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>埃兰的反制卷轴</t>
@@ -3090,135 +3090,135 @@
   </si>
   <si>
     <t>Potion of Leech</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Potion of Regeneration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Potion of Clarity Omen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Source of Mana</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Potion of Tranquility</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Greater Potion of HP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Vial of Archmage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Vial of Battlemaster</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Emperor's New Vial</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Vial of Conversion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Vial of Shield</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Vial of Rampart</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Potion of Dodge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Lesser Potion of Invulnerability</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Potion of Stone Skin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Potion of Magic Power</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Vial of Spell Mastery</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Potion of Arcane</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Potion of Raging Caster</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Vial of Spell Piercing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Vial of Unstable Power</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Potion of Agility</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Potion of Keen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Potion of Swiftness</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Demonic Rune</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Charm of Simple Heal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Charm of Dispel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Charm of Healing Ward</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Charm of Inner Fire</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Charm of Chain Lightning</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Charm of Death Finger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Charm of Siphon Life</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Strange Wand</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lkey_item_arans_counter_spell_scroll</t>
@@ -3447,59 +3447,59 @@
   </si>
   <si>
     <t>Use: Counters all enemy spells within 300 yards.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Increases 200 movespeed for all allies within 900 yards.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Heal allies for 750 HP within 950 yards.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Summons waves of meteor shower to bombard target area, dealing devastating damage to all targets.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Increases 15 AP for all allies within 900 yards, lasts for 20s.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Increases 50% all damage and healing dealt for all allies within 900 yards, lasts for 10s.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Makes all nearby allies within 450 yards immune to any damage, but unable to take any actions for 8 seconds.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Teleports all nearby friendly forces within 600 yards to the target point.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Weaken all enemies within 600 yards from physical damage by 8 points.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Reduces the hit rate of all nearby enemy targets within 600 yards by 50% for 8 seconds.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Reduces the damage and healing effects of all nearby enemies within 600 yards by 75% for 10 seconds.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Restores 200-400 HP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使用：回复200-400HP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使用：回复100-300MP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使用：+40%吸血，持续10秒。</t>
@@ -3590,155 +3590,155 @@
   </si>
   <si>
     <t>Use: Restores 100-300MP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: +40% lifesteal for 10 seconds.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: +10 health regeneration for 75 seconds.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: +5 mana regeneration for 120 seconds.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Recover 30% of mana every second for 5 seconds.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Reduces the hatred caused by 20% for 30 seconds.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Restore 400-800 health points.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: +100% mana limit for 30 seconds.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: +300 health limit, lasts 20 seconds.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Makes you feel that your combat effectiveness has been greatly improved.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: 10% of damaged life is converted into increased mana, and 10% of mana is absorbed on hit. Lasts 10 seconds.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使用：10%受损的生命转为法力的提升，命中吸取10%法力值，持续10秒。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Allows you to absorb 1000 points of damage for 15 seconds.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Increase parry chance by 100% for 10 seconds.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Increases dodge chance by 15% for 15 seconds.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: 100% damage-free for 4 seconds.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: 10 physical damage reduction, 15 seconds.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: +20 spell power for 15 seconds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Spell power is increased by 100%, spell haste is increased by 100%, lasting 2 seconds.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: After causing spell damage, there is a chance to cast arcane bullets</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: +10% spell haste, lasts 15 seconds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使用：+10%法术急速，持续15秒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Spell damage The target's spell damage is increased by 3%. Lasts 20 seconds.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: +20% spell critical strike, lasts 5-20 seconds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使用：法术伤害目标受到的法伤提升3%，持续20秒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使用：法术强度提升100%，法术急速提升100%，持续2秒。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使用：回复400-800生命值。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: +15 Agility for 15 seconds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: +10% critical strike for 15 seconds.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: +15% attack speed for 15 seconds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Heal the target's health by 200 points. CD45 seconds. 8 times.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Dispel a helpful or harmful spell. 10-15 times.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Heals 100 health points per second for 10 seconds. 3-7 times.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: +8 physical damage reduction, +10AP, lasts 15 seconds. 8-12 times</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Usage: 1000dmg, halved one by one, 4 times. 3-5 times.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: 1500dmg, red lightning. 3-5 times.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Drain 200 health points from the target to yourself every 3 seconds. 5-9 times.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Use: Convert 20% of health into 3x mana. 4-8 times.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lkey_attr_arans_counter_spell_scroll</t>
@@ -3898,187 +3898,187 @@
   </si>
   <si>
     <t>坚韧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>麻痹毒药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>疯狂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>风暴之力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>毒药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>死亡缠绕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>流血</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>腐烂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>眩晕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>脆弱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>疲劳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>迟缓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>虚弱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>巫毒之毒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>银色新月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>受诅咒者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>无限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>战歌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>战斗召唤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>妖术力量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>好运</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>迸发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>远古疯狂。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>护甲提升。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>施法速度提升。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>攻击速度提升。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>受到持续性的法术伤害。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>受到的伤害提升。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>受到持续性的物理伤害。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴击几率提升100%。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>受到的治疗降低。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>攻击命中率降低。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>护甲降低。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>攻击速度降低。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>移动速度降低。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>造成的伤害和治疗效果降低。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>智力提升。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>攻击强度提升。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>受到的法术伤害提升。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>造成的伤害和治疗效果提升，受到的治疗效果提升。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最大生命提升。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>法术强度提升。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>躲闪几率提升。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>移动速度提升。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>攻击速度提升，受到的伤害提升。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>埃兰总是能在法师决斗中胜出，也许是因为他很有钱。</t>
@@ -4106,32 +4106,139 @@
   </si>
   <si>
     <t>蚀刻在这些魔杖上复杂的魔法阵以一种不可思议的方式维持着平衡，你很难想象出一种既能引导出里面的魔力又不摧毁这些魔杖的方法。</t>
+  </si>
+  <si>
+    <t>Aran always won, maybe due to his wealth.</t>
+  </si>
+  <si>
+    <t>"Fallen of Erathia."</t>
+  </si>
+  <si>
+    <t>Some characters who look powerful on the battlefield but have never taken action may be using this scroll to disguise themselves.</t>
+  </si>
+  <si>
+    <t>A low-cost, yet practical scroll.</t>
+  </si>
+  <si>
+    <t>"It would be more than this price if you could cross the barrier."</t>
+  </si>
+  <si>
+    <t>Remember to cover your ears when using this scroll.</t>
+  </si>
+  <si>
+    <t>It took Thrall many years to figure out that the weak incident in the concentration camp was actually caused by someone using this scroll to cause trouble!</t>
+  </si>
+  <si>
+    <t>There seems to be a strange voice calling, do you dare to answer?</t>
+  </si>
+  <si>
+    <t>The intricate magic circles etched onto these wands are balanced in an uncanny way, and it's hard to imagine a way to channel the magic within without destroying the wands.</t>
+  </si>
+  <si>
+    <t>lkey_lore_arans_counter_spell_scroll</t>
+  </si>
+  <si>
+    <t>lkey_lore_scroll_of_armageddon</t>
+  </si>
+  <si>
+    <t>lkey_lore_scroll_of_sanctuary</t>
+  </si>
+  <si>
+    <t>lkey_lore_scroll_of_insulation</t>
+  </si>
+  <si>
+    <t>lkey_lore_scroll_of_mass_teleportation</t>
+  </si>
+  <si>
+    <t>lkey_lore_scroll_of_banshee</t>
+  </si>
+  <si>
+    <t>lkey_lore_scroll_of_weakness</t>
+  </si>
+  <si>
+    <t>lkey_lore_demonic_rune</t>
+  </si>
+  <si>
+    <t>lkey_lore_strange_wand</t>
+  </si>
+  <si>
+    <t>Spell Reflection</t>
+  </si>
+  <si>
+    <t>Attack speed and spell haste are increased.</t>
+  </si>
+  <si>
+    <t>Damage taken is decreased.</t>
+  </si>
+  <si>
+    <t>Reflects all targeting spell.</t>
+  </si>
+  <si>
+    <t>法术反射</t>
+  </si>
+  <si>
+    <t>攻击速度和施法速度提升。</t>
+  </si>
+  <si>
+    <t>受到的伤害降低。</t>
+  </si>
+  <si>
+    <t>反射所有指向性法术。</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_scroll_frenzy</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_scroll_protection</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_spell_reflection</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_tip_potion_invul</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_scroll_frenzy</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_scroll_protection</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_spell_reflection</t>
+  </si>
+  <si>
+    <t>lkey_buffobj_utip_potion_invul</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4160,12 +4267,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4448,2822 +4557,2877 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C178" sqref="C178"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
-    <col min="3" max="3" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" s="5" customFormat="1">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <f t="shared" ref="B6:B69" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="A30" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="A31" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" t="s">
+      <c r="A32" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" t="s">
+      <c r="A33" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="A34" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" t="s">
+      <c r="A35" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" t="s">
+      <c r="A36" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" t="s">
+      <c r="A37" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" t="s">
+      <c r="A38" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" t="s">
+      <c r="A39" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" t="s">
+      <c r="A40" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" t="s">
+      <c r="A41" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" t="s">
+      <c r="A42" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" t="s">
+      <c r="A43" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" t="s">
+      <c r="A44" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" t="s">
+      <c r="A45" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" t="s">
+      <c r="A46" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" t="s">
+      <c r="A47" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" t="s">
+      <c r="A48" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" t="s">
+      <c r="A49" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" t="s">
+      <c r="A50" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" t="s">
+      <c r="A51" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" t="s">
+      <c r="A52" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" t="s">
+      <c r="A53" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" t="s">
+      <c r="A54" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" t="s">
+      <c r="A55" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" t="s">
+      <c r="A56" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" t="s">
+      <c r="A57" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" t="s">
+      <c r="A58" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" t="s">
+      <c r="A59" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="4">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" t="s">
+      <c r="A60" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" t="s">
+      <c r="A61" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" t="s">
+      <c r="A62" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" t="s">
+      <c r="A63" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" t="s">
+      <c r="A64" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" t="s">
+      <c r="A65" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" t="s">
+      <c r="A66" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" t="s">
+      <c r="A67" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" t="s">
+      <c r="A68" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" t="s">
+      <c r="A69" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" t="s">
+      <c r="A70" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="4">
         <f t="shared" ref="B70:B133" si="1">ROW()-4</f>
         <v>66</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" t="s">
+      <c r="A71" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="4">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" t="s">
+      <c r="A72" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="4">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" t="s">
+      <c r="A73" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="4">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" t="s">
+      <c r="A74" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="4">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" t="s">
+      <c r="A75" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="4">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" t="s">
+      <c r="A76" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="4">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" t="s">
+      <c r="A77" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="4">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" t="s">
+      <c r="A78" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="4">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" t="s">
+      <c r="A79" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="4">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" t="s">
+      <c r="A80" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="4">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" t="s">
+      <c r="A81" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="4">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" t="s">
+      <c r="A82" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="4">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" t="s">
+      <c r="A83" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="4">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" t="s">
+      <c r="A84" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="4">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" t="s">
+      <c r="A85" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="4">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" t="s">
+      <c r="A86" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="4">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" t="s">
+      <c r="A87" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="4">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" t="s">
+      <c r="A88" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="4">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" t="s">
+      <c r="A89" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="4">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" t="s">
+      <c r="A90" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="4">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" t="s">
+      <c r="A91" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="4">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="4" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" t="s">
+      <c r="A92" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="4">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" t="s">
+      <c r="A93" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="4">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" t="s">
+      <c r="A94" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="4">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" t="s">
+      <c r="A95" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="4">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="4" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" t="s">
+      <c r="A96" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="4">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="4" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" t="s">
+      <c r="A97" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="4">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" t="s">
+      <c r="A98" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="4">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="4" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" t="s">
+      <c r="A99" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="4">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" t="s">
+      <c r="A100" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="4">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="4" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" t="s">
+      <c r="A101" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="4">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" t="s">
+      <c r="A102" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="4">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" t="s">
+      <c r="A103" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="4">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" t="s">
+      <c r="A104" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" t="s">
+      <c r="A105" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="4">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" t="s">
+      <c r="A106" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="4">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="4" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" t="s">
+      <c r="A107" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="4">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="4" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" t="s">
+      <c r="A108" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="4">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="4" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" t="s">
+      <c r="A109" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="4">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" t="s">
+      <c r="A110" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="4">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" t="s">
+      <c r="A111" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="4">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" t="s">
+      <c r="A112" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="4">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="4" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" t="s">
+      <c r="A113" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="4">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" t="s">
+      <c r="A114" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="4">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="4" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" t="s">
+      <c r="A115" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="4">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" t="s">
+      <c r="A116" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="4">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="6" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" t="s">
+      <c r="A117" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="4">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="6" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" t="s">
+      <c r="A118" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="4">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="6" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" t="s">
+      <c r="A119" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="4">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="6" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" t="s">
+      <c r="A120" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="4">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="6" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" t="s">
+      <c r="A121" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="4">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="6" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" t="s">
+      <c r="A122" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="4">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="6" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" t="s">
+      <c r="A123" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="4">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="6" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" t="s">
+      <c r="A124" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="4">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="6" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" t="s">
+      <c r="A125" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="4">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" t="s">
+      <c r="A126" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="4">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="6" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" t="s">
+      <c r="A127" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="4">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="4" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" t="s">
+      <c r="A128" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="4">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="4" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" t="s">
+      <c r="A129" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="4">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="4" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" t="s">
+      <c r="A130" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="4">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" t="s">
+      <c r="A131" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="4">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="4" t="s">
         <v>900</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="4" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" t="s">
+      <c r="A132" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="4">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="4" t="s">
         <v>901</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="4" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" t="s">
+      <c r="A133" s="4" t="s">
         <v>1006</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="4">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="4" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" t="s">
+      <c r="A134" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="4">
         <f t="shared" ref="B134:B191" si="2">ROW()-4</f>
         <v>130</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="4" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" t="s">
+      <c r="A135" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="4">
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="4" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" t="s">
+      <c r="A136" s="4" t="s">
         <v>1009</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="4">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="4" t="s">
         <v>908</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="4" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" t="s">
+      <c r="A137" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="4">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="4" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" t="s">
+      <c r="A138" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="4">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="4" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" t="s">
+      <c r="A139" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="4">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="4" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" t="s">
+      <c r="A140" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="4">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="4" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" t="s">
+      <c r="A141" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="4">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="4" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" t="s">
+      <c r="A142" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="4">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="4" t="s">
         <v>906</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="4" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" t="s">
+      <c r="A143" s="4" t="s">
         <v>1016</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="4">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="4" t="s">
         <v>913</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="4" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" t="s">
+      <c r="A144" s="4" t="s">
         <v>1017</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="4">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="4" t="s">
         <v>914</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="4" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" t="s">
+      <c r="A145" s="4" t="s">
         <v>1018</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="4">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="4" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" t="s">
+      <c r="A146" s="4" t="s">
         <v>1019</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="4">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="4" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" t="s">
+      <c r="A147" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="4">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="4" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" t="s">
+      <c r="A148" s="4" t="s">
         <v>1021</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="4">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="4" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" t="s">
+      <c r="A149" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="4">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="4" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" t="s">
+      <c r="A150" s="4" t="s">
         <v>1023</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="4">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="4" t="s">
         <v>972</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="4" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" t="s">
+      <c r="A151" s="4" t="s">
         <v>1024</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="4">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="4" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" t="s">
+      <c r="A152" s="4" t="s">
         <v>1025</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="4">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="4" t="s">
         <v>974</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="4" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" t="s">
+      <c r="A153" s="4" t="s">
         <v>1026</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="4">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="4" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" t="s">
+      <c r="A154" s="4" t="s">
         <v>1027</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="4">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="4" t="s">
         <v>976</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="4" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" t="s">
+      <c r="A155" s="4" t="s">
         <v>1028</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="4">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="4" t="s">
         <v>977</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="4" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" t="s">
+      <c r="A156" s="4" t="s">
         <v>1029</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="4">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="4" t="s">
         <v>978</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="4" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" t="s">
+      <c r="A157" s="4" t="s">
         <v>1030</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="4">
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="4" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" t="s">
+      <c r="A158" s="4" t="s">
         <v>1031</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="4">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="4" t="s">
         <v>980</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="4" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" t="s">
+      <c r="A159" s="4" t="s">
         <v>1032</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="4">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="4" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" t="s">
+      <c r="A160" s="4" t="s">
         <v>1033</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="4">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="4" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" t="s">
+      <c r="A161" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="4">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="4" t="s">
         <v>983</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="4" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" t="s">
+      <c r="A162" s="4" t="s">
         <v>1035</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="4">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="4" t="s">
         <v>984</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="4" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" t="s">
+      <c r="A163" s="4" t="s">
         <v>1036</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="4">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="4" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" t="s">
+      <c r="A164" s="4" t="s">
         <v>1037</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="4">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="4" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" t="s">
+      <c r="A165" s="4" t="s">
         <v>1038</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="4">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="4" t="s">
         <v>986</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="4" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" t="s">
+      <c r="A166" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="4">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="4" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" t="s">
+      <c r="A167" s="4" t="s">
         <v>1040</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="4">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="4" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" t="s">
+      <c r="A168" s="4" t="s">
         <v>1041</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="4">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="4" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" t="s">
+      <c r="A169" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="4">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="4" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" t="s">
+      <c r="A170" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="4">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="4" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" t="s">
+      <c r="A171" s="4" t="s">
         <v>1044</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="4">
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="4" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" t="s">
+      <c r="A172" s="4" t="s">
         <v>1045</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="4">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="4" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" t="s">
+      <c r="A173" s="4" t="s">
         <v>1046</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="4">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="4" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" t="s">
+      <c r="A174" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="4">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="4" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" t="s">
+      <c r="A175" s="4" t="s">
         <v>1048</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="4">
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="4" t="s">
         <v>997</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="4" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" t="s">
+      <c r="A176" s="4" t="s">
         <v>1049</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="4">
         <f t="shared" si="2"/>
         <v>172</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="4" t="s">
         <v>998</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="4" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" t="s">
+      <c r="A177" s="4" t="s">
         <v>1050</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="4">
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="4" t="s">
         <v>999</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="4" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" t="s">
+      <c r="A178" s="4" t="s">
         <v>1051</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="4">
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="4" t="s">
         <v>1000</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="4" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" t="s">
+      <c r="A179" s="4" t="s">
         <v>1052</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="4">
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="4" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" t="s">
+      <c r="A180" s="4" t="s">
         <v>1053</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="4">
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="4" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" t="s">
+      <c r="A181" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="4">
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="4" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" t="s">
+      <c r="A182" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="4">
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="4" t="s">
         <v>1003</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="4" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="B183">
+      <c r="A183" s="4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B183" s="4">
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
-      <c r="D183" t="s">
+      <c r="C183" s="4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D183" s="4" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="B184">
+      <c r="A184" s="4" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B184" s="4">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="D184" t="s">
+      <c r="C184" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D184" s="4" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="185" spans="1:4">
-      <c r="B185">
+      <c r="A185" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B185" s="4">
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
-      <c r="D185" t="s">
+      <c r="C185" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D185" s="4" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="186" spans="1:4">
-      <c r="B186">
+      <c r="A186" s="4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B186" s="4">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="D186" t="s">
+      <c r="C186" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D186" s="4" t="s">
         <v>1261</v>
       </c>
     </row>
     <row r="187" spans="1:4">
-      <c r="B187">
+      <c r="A187" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B187" s="4">
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
-      <c r="D187" t="s">
+      <c r="C187" s="4" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D187" s="4" t="s">
         <v>1262</v>
       </c>
     </row>
     <row r="188" spans="1:4">
-      <c r="B188">
+      <c r="A188" s="4" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B188" s="4">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="D188" t="s">
+      <c r="C188" s="4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D188" s="4" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="B189">
+      <c r="A189" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B189" s="4">
         <f t="shared" si="2"/>
         <v>185</v>
       </c>
-      <c r="D189" t="s">
+      <c r="C189" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D189" s="4" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="190" spans="1:4">
-      <c r="B190">
+      <c r="A190" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B190" s="4">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="D190" t="s">
+      <c r="C190" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D190" s="4" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="191" spans="1:4">
-      <c r="B191">
+      <c r="A191" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B191" s="4">
         <f t="shared" si="2"/>
         <v>187</v>
       </c>
-      <c r="D191" t="s">
+      <c r="C191" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D191" s="4" t="s">
         <v>1266</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7273,16 +7437,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9DF4C1-75AE-4DFD-A39E-52C4C78C52C6}">
   <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A109" workbookViewId="0">
       <selection activeCell="B155" sqref="B103:B155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="43.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="48.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7292,10 +7456,10 @@
       <c r="B1" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7306,10 +7470,10 @@
       <c r="B2" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7322,16 +7486,16 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7343,10 +7507,10 @@
         <f>ROW()+995</f>
         <v>1000</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>489</v>
       </c>
     </row>
@@ -7358,10 +7522,10 @@
         <f t="shared" ref="B6:B69" si="0">ROW()+995</f>
         <v>1001</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>490</v>
       </c>
     </row>
@@ -7373,10 +7537,10 @@
         <f t="shared" si="0"/>
         <v>1002</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7388,10 +7552,10 @@
         <f t="shared" si="0"/>
         <v>1003</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>492</v>
       </c>
     </row>
@@ -7403,10 +7567,10 @@
         <f t="shared" si="0"/>
         <v>1004</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>493</v>
       </c>
     </row>
@@ -7418,10 +7582,10 @@
         <f t="shared" si="0"/>
         <v>1005</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -7433,10 +7597,10 @@
         <f t="shared" si="0"/>
         <v>1006</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7448,10 +7612,10 @@
         <f t="shared" si="0"/>
         <v>1007</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>495</v>
       </c>
     </row>
@@ -7463,10 +7627,10 @@
         <f t="shared" si="0"/>
         <v>1008</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>496</v>
       </c>
     </row>
@@ -7478,10 +7642,10 @@
         <f t="shared" si="0"/>
         <v>1009</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>497</v>
       </c>
     </row>
@@ -7493,10 +7657,10 @@
         <f t="shared" si="0"/>
         <v>1010</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>498</v>
       </c>
     </row>
@@ -7508,10 +7672,10 @@
         <f t="shared" si="0"/>
         <v>1011</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>520</v>
       </c>
     </row>
@@ -7523,10 +7687,10 @@
         <f t="shared" si="0"/>
         <v>1012</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>519</v>
       </c>
     </row>
@@ -7538,10 +7702,10 @@
         <f t="shared" si="0"/>
         <v>1013</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>499</v>
       </c>
     </row>
@@ -7553,10 +7717,10 @@
         <f t="shared" si="0"/>
         <v>1014</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>527</v>
       </c>
     </row>
@@ -7568,10 +7732,10 @@
         <f t="shared" si="0"/>
         <v>1015</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>528</v>
       </c>
     </row>
@@ -7583,10 +7747,10 @@
         <f t="shared" si="0"/>
         <v>1016</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>500</v>
       </c>
     </row>
@@ -7598,10 +7762,10 @@
         <f t="shared" si="0"/>
         <v>1017</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>501</v>
       </c>
     </row>
@@ -7613,10 +7777,10 @@
         <f t="shared" si="0"/>
         <v>1018</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>535</v>
       </c>
     </row>
@@ -7628,10 +7792,10 @@
         <f t="shared" si="0"/>
         <v>1019</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>502</v>
       </c>
     </row>
@@ -7643,10 +7807,10 @@
         <f t="shared" si="0"/>
         <v>1020</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>538</v>
       </c>
     </row>
@@ -7658,10 +7822,10 @@
         <f t="shared" si="0"/>
         <v>1021</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7673,10 +7837,10 @@
         <f t="shared" si="0"/>
         <v>1022</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>504</v>
       </c>
     </row>
@@ -7688,10 +7852,10 @@
         <f t="shared" si="0"/>
         <v>1023</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>542</v>
       </c>
     </row>
@@ -7703,10 +7867,10 @@
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>543</v>
       </c>
     </row>
@@ -7718,10 +7882,10 @@
         <f t="shared" si="0"/>
         <v>1025</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>505</v>
       </c>
     </row>
@@ -7733,10 +7897,10 @@
         <f t="shared" si="0"/>
         <v>1026</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>506</v>
       </c>
     </row>
@@ -7748,10 +7912,10 @@
         <f t="shared" si="0"/>
         <v>1027</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>548</v>
       </c>
     </row>
@@ -7763,10 +7927,10 @@
         <f t="shared" si="0"/>
         <v>1028</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>507</v>
       </c>
     </row>
@@ -7778,10 +7942,10 @@
         <f t="shared" si="0"/>
         <v>1029</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>508</v>
       </c>
     </row>
@@ -7793,10 +7957,10 @@
         <f t="shared" si="0"/>
         <v>1030</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>552</v>
       </c>
     </row>
@@ -7808,10 +7972,10 @@
         <f t="shared" si="0"/>
         <v>1031</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>554</v>
       </c>
     </row>
@@ -7823,10 +7987,10 @@
         <f t="shared" si="0"/>
         <v>1032</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>555</v>
       </c>
     </row>
@@ -7838,10 +8002,10 @@
         <f t="shared" si="0"/>
         <v>1033</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>556</v>
       </c>
     </row>
@@ -7853,10 +8017,10 @@
         <f t="shared" si="0"/>
         <v>1034</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>594</v>
       </c>
     </row>
@@ -7868,10 +8032,10 @@
         <f t="shared" si="0"/>
         <v>1035</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>595</v>
       </c>
     </row>
@@ -7883,10 +8047,10 @@
         <f t="shared" si="0"/>
         <v>1036</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>593</v>
       </c>
     </row>
@@ -7898,10 +8062,10 @@
         <f t="shared" si="0"/>
         <v>1037</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -7913,10 +8077,10 @@
         <f t="shared" si="0"/>
         <v>1038</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>628</v>
       </c>
     </row>
@@ -7928,10 +8092,10 @@
         <f t="shared" si="0"/>
         <v>1039</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>630</v>
       </c>
     </row>
@@ -7943,10 +8107,10 @@
         <f t="shared" si="0"/>
         <v>1040</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>632</v>
       </c>
     </row>
@@ -7958,10 +8122,10 @@
         <f t="shared" si="0"/>
         <v>1041</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>634</v>
       </c>
     </row>
@@ -7973,10 +8137,10 @@
         <f t="shared" si="0"/>
         <v>1042</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>636</v>
       </c>
     </row>
@@ -7988,10 +8152,10 @@
         <f t="shared" si="0"/>
         <v>1043</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>638</v>
       </c>
     </row>
@@ -8003,10 +8167,10 @@
         <f t="shared" si="0"/>
         <v>1044</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>640</v>
       </c>
     </row>
@@ -8018,10 +8182,10 @@
         <f t="shared" si="0"/>
         <v>1045</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>642</v>
       </c>
     </row>
@@ -8033,10 +8197,10 @@
         <f t="shared" si="0"/>
         <v>1046</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>644</v>
       </c>
     </row>
@@ -8048,10 +8212,10 @@
         <f t="shared" si="0"/>
         <v>1047</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>557</v>
       </c>
     </row>
@@ -8063,10 +8227,10 @@
         <f t="shared" si="0"/>
         <v>1048</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>558</v>
       </c>
     </row>
@@ -8078,10 +8242,10 @@
         <f t="shared" si="0"/>
         <v>1049</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>650</v>
       </c>
     </row>
@@ -8093,10 +8257,10 @@
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>559</v>
       </c>
     </row>
@@ -8108,10 +8272,10 @@
         <f t="shared" si="0"/>
         <v>1051</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>560</v>
       </c>
     </row>
@@ -8123,10 +8287,10 @@
         <f t="shared" si="0"/>
         <v>1052</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>656</v>
       </c>
     </row>
@@ -8138,10 +8302,10 @@
         <f t="shared" si="0"/>
         <v>1053</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>645</v>
       </c>
     </row>
@@ -8153,10 +8317,10 @@
         <f t="shared" si="0"/>
         <v>1054</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>654</v>
       </c>
     </row>
@@ -8168,10 +8332,10 @@
         <f t="shared" si="0"/>
         <v>1055</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>646</v>
       </c>
     </row>
@@ -8183,10 +8347,10 @@
         <f t="shared" si="0"/>
         <v>1056</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>659</v>
       </c>
     </row>
@@ -8198,10 +8362,10 @@
         <f t="shared" si="0"/>
         <v>1057</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>660</v>
       </c>
     </row>
@@ -8213,10 +8377,10 @@
         <f t="shared" si="0"/>
         <v>1058</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>661</v>
       </c>
     </row>
@@ -8228,10 +8392,10 @@
         <f t="shared" si="0"/>
         <v>1059</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>665</v>
       </c>
     </row>
@@ -8243,10 +8407,10 @@
         <f t="shared" si="0"/>
         <v>1060</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>666</v>
       </c>
     </row>
@@ -8258,10 +8422,10 @@
         <f t="shared" si="0"/>
         <v>1061</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>561</v>
       </c>
     </row>
@@ -8273,10 +8437,10 @@
         <f t="shared" si="0"/>
         <v>1062</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>562</v>
       </c>
     </row>
@@ -8288,10 +8452,10 @@
         <f t="shared" si="0"/>
         <v>1063</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>686</v>
       </c>
     </row>
@@ -8303,10 +8467,10 @@
         <f t="shared" si="0"/>
         <v>1064</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>563</v>
       </c>
     </row>
@@ -8318,10 +8482,10 @@
         <f t="shared" ref="B70:B133" si="1">ROW()+995</f>
         <v>1065</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>564</v>
       </c>
     </row>
@@ -8333,10 +8497,10 @@
         <f t="shared" si="1"/>
         <v>1066</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>565</v>
       </c>
     </row>
@@ -8348,10 +8512,10 @@
         <f t="shared" si="1"/>
         <v>1067</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="2" t="s">
         <v>668</v>
       </c>
     </row>
@@ -8363,10 +8527,10 @@
         <f t="shared" si="1"/>
         <v>1068</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>566</v>
       </c>
     </row>
@@ -8378,10 +8542,10 @@
         <f t="shared" si="1"/>
         <v>1069</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>670</v>
       </c>
     </row>
@@ -8393,10 +8557,10 @@
         <f t="shared" si="1"/>
         <v>1070</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>672</v>
       </c>
     </row>
@@ -8408,10 +8572,10 @@
         <f t="shared" si="1"/>
         <v>1071</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>567</v>
       </c>
     </row>
@@ -8423,10 +8587,10 @@
         <f t="shared" si="1"/>
         <v>1072</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>674</v>
       </c>
     </row>
@@ -8438,10 +8602,10 @@
         <f t="shared" si="1"/>
         <v>1073</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>568</v>
       </c>
     </row>
@@ -8453,10 +8617,10 @@
         <f t="shared" si="1"/>
         <v>1074</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="2" t="s">
         <v>676</v>
       </c>
     </row>
@@ -8468,10 +8632,10 @@
         <f t="shared" si="1"/>
         <v>1075</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="2" t="s">
         <v>569</v>
       </c>
     </row>
@@ -8483,10 +8647,10 @@
         <f t="shared" si="1"/>
         <v>1076</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>570</v>
       </c>
     </row>
@@ -8498,10 +8662,10 @@
         <f t="shared" si="1"/>
         <v>1077</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>571</v>
       </c>
     </row>
@@ -8513,10 +8677,10 @@
         <f t="shared" si="1"/>
         <v>1078</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="2" t="s">
         <v>572</v>
       </c>
     </row>
@@ -8528,10 +8692,10 @@
         <f t="shared" si="1"/>
         <v>1079</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="2" t="s">
         <v>573</v>
       </c>
     </row>
@@ -8543,10 +8707,10 @@
         <f t="shared" si="1"/>
         <v>1080</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="2" t="s">
         <v>574</v>
       </c>
     </row>
@@ -8558,10 +8722,10 @@
         <f t="shared" si="1"/>
         <v>1081</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="2" t="s">
         <v>575</v>
       </c>
     </row>
@@ -8573,10 +8737,10 @@
         <f t="shared" si="1"/>
         <v>1082</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>576</v>
       </c>
     </row>
@@ -8588,10 +8752,10 @@
         <f t="shared" si="1"/>
         <v>1083</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>577</v>
       </c>
     </row>
@@ -8603,10 +8767,10 @@
         <f t="shared" si="1"/>
         <v>1084</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="2" t="s">
         <v>678</v>
       </c>
     </row>
@@ -8618,10 +8782,10 @@
         <f t="shared" si="1"/>
         <v>1085</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="2" t="s">
         <v>578</v>
       </c>
     </row>
@@ -8633,10 +8797,10 @@
         <f t="shared" si="1"/>
         <v>1086</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="2" t="s">
         <v>680</v>
       </c>
     </row>
@@ -8648,10 +8812,10 @@
         <f t="shared" si="1"/>
         <v>1087</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="2" t="s">
         <v>579</v>
       </c>
     </row>
@@ -8663,10 +8827,10 @@
         <f t="shared" si="1"/>
         <v>1088</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="2" t="s">
         <v>580</v>
       </c>
     </row>
@@ -8678,10 +8842,10 @@
         <f t="shared" si="1"/>
         <v>1089</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="2" t="s">
         <v>581</v>
       </c>
     </row>
@@ -8693,10 +8857,10 @@
         <f t="shared" si="1"/>
         <v>1090</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="2" t="s">
         <v>582</v>
       </c>
     </row>
@@ -8708,10 +8872,10 @@
         <f t="shared" si="1"/>
         <v>1091</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="2" t="s">
         <v>583</v>
       </c>
     </row>
@@ -8723,10 +8887,10 @@
         <f t="shared" si="1"/>
         <v>1092</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="2" t="s">
         <v>584</v>
       </c>
     </row>
@@ -8738,10 +8902,10 @@
         <f t="shared" si="1"/>
         <v>1093</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="2" t="s">
         <v>585</v>
       </c>
     </row>
@@ -8753,10 +8917,10 @@
         <f t="shared" si="1"/>
         <v>1094</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="2" t="s">
         <v>586</v>
       </c>
     </row>
@@ -8768,10 +8932,10 @@
         <f t="shared" si="1"/>
         <v>1095</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="2" t="s">
         <v>682</v>
       </c>
     </row>
@@ -8783,10 +8947,10 @@
         <f t="shared" si="1"/>
         <v>1096</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="2" t="s">
         <v>587</v>
       </c>
     </row>
@@ -8798,10 +8962,10 @@
         <f t="shared" si="1"/>
         <v>1097</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="2" t="s">
         <v>683</v>
       </c>
     </row>
@@ -8813,10 +8977,10 @@
         <f t="shared" si="1"/>
         <v>1098</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="2" t="s">
         <v>684</v>
       </c>
     </row>
@@ -8828,10 +8992,10 @@
         <f t="shared" si="1"/>
         <v>1099</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="2" t="s">
         <v>1056</v>
       </c>
     </row>
@@ -8843,10 +9007,10 @@
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="2" t="s">
         <v>1080</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="2" t="s">
         <v>1057</v>
       </c>
     </row>
@@ -8858,10 +9022,10 @@
         <f t="shared" si="1"/>
         <v>1101</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="2" t="s">
         <v>1059</v>
       </c>
     </row>
@@ -8873,10 +9037,10 @@
         <f t="shared" si="1"/>
         <v>1102</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="2" t="s">
         <v>1061</v>
       </c>
     </row>
@@ -8888,10 +9052,10 @@
         <f t="shared" si="1"/>
         <v>1103</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="2" t="s">
         <v>1063</v>
       </c>
     </row>
@@ -8903,10 +9067,10 @@
         <f t="shared" si="1"/>
         <v>1104</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="2" t="s">
         <v>1064</v>
       </c>
     </row>
@@ -8918,10 +9082,10 @@
         <f t="shared" si="1"/>
         <v>1105</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="2" t="s">
         <v>1065</v>
       </c>
     </row>
@@ -8933,10 +9097,10 @@
         <f t="shared" si="1"/>
         <v>1106</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="2" t="s">
         <v>1066</v>
       </c>
     </row>
@@ -8948,10 +9112,10 @@
         <f t="shared" si="1"/>
         <v>1107</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="2" t="s">
         <v>1067</v>
       </c>
     </row>
@@ -8963,10 +9127,10 @@
         <f t="shared" si="1"/>
         <v>1108</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="2" t="s">
         <v>1068</v>
       </c>
     </row>
@@ -8978,10 +9142,10 @@
         <f t="shared" si="1"/>
         <v>1109</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="2" t="s">
         <v>1070</v>
       </c>
     </row>
@@ -8993,10 +9157,10 @@
         <f t="shared" si="1"/>
         <v>1110</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="2" t="s">
         <v>1072</v>
       </c>
     </row>
@@ -9008,10 +9172,10 @@
         <f t="shared" si="1"/>
         <v>1111</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="2" t="s">
         <v>1073</v>
       </c>
     </row>
@@ -9023,10 +9187,10 @@
         <f t="shared" si="1"/>
         <v>1112</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="2" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -9038,10 +9202,10 @@
         <f t="shared" si="1"/>
         <v>1113</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="2" t="s">
         <v>1075</v>
       </c>
     </row>
@@ -9053,10 +9217,10 @@
         <f t="shared" si="1"/>
         <v>1114</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="2" t="s">
         <v>1076</v>
       </c>
     </row>
@@ -9068,10 +9232,10 @@
         <f t="shared" si="1"/>
         <v>1115</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="2" t="s">
         <v>1091</v>
       </c>
     </row>
@@ -9083,10 +9247,10 @@
         <f t="shared" si="1"/>
         <v>1116</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="2" t="s">
         <v>1122</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="2" t="s">
         <v>1092</v>
       </c>
     </row>
@@ -9098,10 +9262,10 @@
         <f t="shared" si="1"/>
         <v>1117</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="2" t="s">
         <v>1093</v>
       </c>
     </row>
@@ -9113,10 +9277,10 @@
         <f t="shared" si="1"/>
         <v>1118</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="2" t="s">
         <v>1124</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="2" t="s">
         <v>1094</v>
       </c>
     </row>
@@ -9128,10 +9292,10 @@
         <f t="shared" si="1"/>
         <v>1119</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="2" t="s">
         <v>1125</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="2" t="s">
         <v>1095</v>
       </c>
     </row>
@@ -9143,10 +9307,10 @@
         <f t="shared" si="1"/>
         <v>1120</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="2" t="s">
         <v>1126</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D125" s="2" t="s">
         <v>1096</v>
       </c>
     </row>
@@ -9158,10 +9322,10 @@
         <f t="shared" si="1"/>
         <v>1121</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="2" t="s">
         <v>1097</v>
       </c>
     </row>
@@ -9173,10 +9337,10 @@
         <f t="shared" si="1"/>
         <v>1122</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="2" t="s">
         <v>1128</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D127" s="2" t="s">
         <v>1148</v>
       </c>
     </row>
@@ -9188,10 +9352,10 @@
         <f t="shared" si="1"/>
         <v>1123</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="2" t="s">
         <v>1098</v>
       </c>
     </row>
@@ -9203,10 +9367,10 @@
         <f t="shared" si="1"/>
         <v>1124</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="2" t="s">
         <v>1099</v>
       </c>
     </row>
@@ -9218,10 +9382,10 @@
         <f t="shared" si="1"/>
         <v>1125</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="2" t="s">
         <v>1100</v>
       </c>
     </row>
@@ -9233,10 +9397,10 @@
         <f t="shared" si="1"/>
         <v>1126</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="2" t="s">
         <v>1132</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="2" t="s">
         <v>1133</v>
       </c>
     </row>
@@ -9248,10 +9412,10 @@
         <f t="shared" si="1"/>
         <v>1127</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="2" t="s">
         <v>1101</v>
       </c>
     </row>
@@ -9263,10 +9427,10 @@
         <f t="shared" si="1"/>
         <v>1128</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="2" t="s">
         <v>1102</v>
       </c>
     </row>
@@ -9278,10 +9442,10 @@
         <f t="shared" ref="B134:B155" si="2">ROW()+995</f>
         <v>1129</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="2" t="s">
         <v>1136</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="2" t="s">
         <v>1103</v>
       </c>
     </row>
@@ -9293,10 +9457,10 @@
         <f t="shared" si="2"/>
         <v>1130</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="2" t="s">
         <v>1137</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="2" t="s">
         <v>1104</v>
       </c>
     </row>
@@ -9308,10 +9472,10 @@
         <f t="shared" si="2"/>
         <v>1131</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="2" t="s">
         <v>1105</v>
       </c>
     </row>
@@ -9323,10 +9487,10 @@
         <f t="shared" si="2"/>
         <v>1132</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="2" t="s">
         <v>1138</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="2" t="s">
         <v>1106</v>
       </c>
     </row>
@@ -9338,10 +9502,10 @@
         <f t="shared" si="2"/>
         <v>1133</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="2" t="s">
         <v>1139</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="2" t="s">
         <v>1107</v>
       </c>
     </row>
@@ -9353,10 +9517,10 @@
         <f t="shared" si="2"/>
         <v>1134</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="2" t="s">
         <v>1140</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="2" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -9368,10 +9532,10 @@
         <f t="shared" si="2"/>
         <v>1135</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="2" t="s">
         <v>1141</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="2" t="s">
         <v>1108</v>
       </c>
     </row>
@@ -9383,10 +9547,10 @@
         <f t="shared" si="2"/>
         <v>1136</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="2" t="s">
         <v>1142</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="2" t="s">
         <v>1143</v>
       </c>
     </row>
@@ -9398,10 +9562,10 @@
         <f t="shared" si="2"/>
         <v>1137</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="2" t="s">
         <v>1144</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="2" t="s">
         <v>1146</v>
       </c>
     </row>
@@ -9413,10 +9577,10 @@
         <f t="shared" si="2"/>
         <v>1138</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="2" t="s">
         <v>1109</v>
       </c>
     </row>
@@ -9428,10 +9592,10 @@
         <f t="shared" si="2"/>
         <v>1139</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="2" t="s">
         <v>1110</v>
       </c>
     </row>
@@ -9443,10 +9607,10 @@
         <f t="shared" si="2"/>
         <v>1140</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="2" t="s">
         <v>1111</v>
       </c>
     </row>
@@ -9458,10 +9622,10 @@
         <f t="shared" si="2"/>
         <v>1141</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D146" s="2" t="s">
         <v>1112</v>
       </c>
     </row>
@@ -9473,10 +9637,10 @@
         <f t="shared" si="2"/>
         <v>1142</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="2" t="s">
         <v>1152</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D147" s="2" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -9488,10 +9652,10 @@
         <f t="shared" si="2"/>
         <v>1143</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="2" t="s">
         <v>1114</v>
       </c>
     </row>
@@ -9503,10 +9667,10 @@
         <f t="shared" si="2"/>
         <v>1144</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="2" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -9518,10 +9682,10 @@
         <f t="shared" si="2"/>
         <v>1145</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="2" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -9533,10 +9697,10 @@
         <f t="shared" si="2"/>
         <v>1146</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="D151" s="2" t="s">
         <v>1117</v>
       </c>
     </row>
@@ -9548,10 +9712,10 @@
         <f t="shared" si="2"/>
         <v>1147</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D152" s="2" t="s">
         <v>1118</v>
       </c>
     </row>
@@ -9563,10 +9727,10 @@
         <f t="shared" si="2"/>
         <v>1148</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D153" s="2" t="s">
         <v>1119</v>
       </c>
     </row>
@@ -9578,10 +9742,10 @@
         <f t="shared" si="2"/>
         <v>1149</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D154" s="2" t="s">
         <v>1120</v>
       </c>
     </row>
@@ -9593,15 +9757,15 @@
         <f t="shared" si="2"/>
         <v>1150</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" s="2" t="s">
         <v>1121</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9615,10 +9779,10 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9628,10 +9792,10 @@
       <c r="B1" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -9642,10 +9806,10 @@
       <c r="B2" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>257</v>
       </c>
     </row>
@@ -9656,20 +9820,20 @@
       <c r="B3" t="s">
         <v>380</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10274,23 +10438,24 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324345F0-B370-436E-9C67-CF524D45221A}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="39.375" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10300,10 +10465,10 @@
       <c r="B1" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10314,10 +10479,10 @@
       <c r="B2" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>257</v>
       </c>
     </row>
@@ -10328,20 +10493,20 @@
       <c r="B3" t="s">
         <v>380</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10356,7 +10521,7 @@
       <c r="C5" t="s">
         <v>687</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>1212</v>
       </c>
     </row>
@@ -10365,13 +10530,13 @@
         <v>733</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6:B52" si="0">ROW()+9995</f>
+        <f t="shared" ref="B6:B60" si="0">ROW()+9995</f>
         <v>10001</v>
       </c>
       <c r="C6" t="s">
         <v>688</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>1213</v>
       </c>
     </row>
@@ -10386,7 +10551,7 @@
       <c r="C7" t="s">
         <v>689</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -10401,7 +10566,7 @@
       <c r="C8" t="s">
         <v>690</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>1215</v>
       </c>
     </row>
@@ -10416,7 +10581,7 @@
       <c r="C9" t="s">
         <v>691</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>1216</v>
       </c>
     </row>
@@ -10431,7 +10596,7 @@
       <c r="C10" t="s">
         <v>692</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>1217</v>
       </c>
     </row>
@@ -10446,7 +10611,7 @@
       <c r="C11" t="s">
         <v>693</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>1218</v>
       </c>
     </row>
@@ -10461,7 +10626,7 @@
       <c r="C12" t="s">
         <v>694</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>1219</v>
       </c>
     </row>
@@ -10476,7 +10641,7 @@
       <c r="C13" t="s">
         <v>695</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>1220</v>
       </c>
     </row>
@@ -10491,7 +10656,7 @@
       <c r="C14" t="s">
         <v>696</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>1221</v>
       </c>
     </row>
@@ -10506,7 +10671,7 @@
       <c r="C15" t="s">
         <v>697</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -10521,7 +10686,7 @@
       <c r="C16" t="s">
         <v>698</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -10536,7 +10701,7 @@
       <c r="C17" t="s">
         <v>699</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>1224</v>
       </c>
     </row>
@@ -10551,7 +10716,7 @@
       <c r="C18" t="s">
         <v>700</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>1225</v>
       </c>
     </row>
@@ -10566,7 +10731,7 @@
       <c r="C19" t="s">
         <v>701</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>1226</v>
       </c>
     </row>
@@ -10581,7 +10746,7 @@
       <c r="C20" t="s">
         <v>702</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>1227</v>
       </c>
     </row>
@@ -10596,7 +10761,7 @@
       <c r="C21" t="s">
         <v>703</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>1228</v>
       </c>
     </row>
@@ -10611,7 +10776,7 @@
       <c r="C22" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>1229</v>
       </c>
     </row>
@@ -10626,7 +10791,7 @@
       <c r="C23" t="s">
         <v>704</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>1230</v>
       </c>
     </row>
@@ -10641,7 +10806,7 @@
       <c r="C24" t="s">
         <v>705</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>1231</v>
       </c>
     </row>
@@ -10656,7 +10821,7 @@
       <c r="C25" t="s">
         <v>706</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>1232</v>
       </c>
     </row>
@@ -10671,7 +10836,7 @@
       <c r="C26" t="s">
         <v>707</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>1233</v>
       </c>
     </row>
@@ -10686,7 +10851,7 @@
       <c r="C27" t="s">
         <v>708</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>1234</v>
       </c>
     </row>
@@ -10701,7 +10866,7 @@
       <c r="C28" t="s">
         <v>709</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>1235</v>
       </c>
     </row>
@@ -10716,7 +10881,7 @@
       <c r="C29" t="s">
         <v>710</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>1236</v>
       </c>
     </row>
@@ -10731,7 +10896,7 @@
       <c r="C30" t="s">
         <v>711</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>1237</v>
       </c>
     </row>
@@ -10746,7 +10911,7 @@
       <c r="C31" t="s">
         <v>712</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>1238</v>
       </c>
     </row>
@@ -10761,7 +10926,7 @@
       <c r="C32" t="s">
         <v>712</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>1238</v>
       </c>
     </row>
@@ -10776,7 +10941,7 @@
       <c r="C33" t="s">
         <v>713</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>1239</v>
       </c>
     </row>
@@ -10791,7 +10956,7 @@
       <c r="C34" t="s">
         <v>714</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>1240</v>
       </c>
     </row>
@@ -10806,7 +10971,7 @@
       <c r="C35" t="s">
         <v>715</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>1241</v>
       </c>
     </row>
@@ -10821,7 +10986,7 @@
       <c r="C36" t="s">
         <v>716</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>1242</v>
       </c>
     </row>
@@ -10836,7 +11001,7 @@
       <c r="C37" t="s">
         <v>717</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>1243</v>
       </c>
     </row>
@@ -10851,7 +11016,7 @@
       <c r="C38" t="s">
         <v>718</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>1244</v>
       </c>
     </row>
@@ -10866,7 +11031,7 @@
       <c r="C39" t="s">
         <v>719</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>1245</v>
       </c>
     </row>
@@ -10881,7 +11046,7 @@
       <c r="C40" t="s">
         <v>720</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>1246</v>
       </c>
     </row>
@@ -10896,7 +11061,7 @@
       <c r="C41" t="s">
         <v>721</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>1247</v>
       </c>
     </row>
@@ -10911,7 +11076,7 @@
       <c r="C42" t="s">
         <v>722</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>1248</v>
       </c>
     </row>
@@ -10926,7 +11091,7 @@
       <c r="C43" t="s">
         <v>713</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>1239</v>
       </c>
     </row>
@@ -10941,7 +11106,7 @@
       <c r="C44" t="s">
         <v>723</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>1249</v>
       </c>
     </row>
@@ -10956,7 +11121,7 @@
       <c r="C45" t="s">
         <v>724</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>1250</v>
       </c>
     </row>
@@ -10971,7 +11136,7 @@
       <c r="C46" t="s">
         <v>725</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>1251</v>
       </c>
     </row>
@@ -10986,7 +11151,7 @@
       <c r="C47" t="s">
         <v>726</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>1252</v>
       </c>
     </row>
@@ -11001,7 +11166,7 @@
       <c r="C48" t="s">
         <v>727</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>1253</v>
       </c>
     </row>
@@ -11016,7 +11181,7 @@
       <c r="C49" t="s">
         <v>728</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>1254</v>
       </c>
     </row>
@@ -11031,7 +11196,7 @@
       <c r="C50" t="s">
         <v>729</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>1255</v>
       </c>
     </row>
@@ -11046,7 +11211,7 @@
       <c r="C51" t="s">
         <v>730</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>1256</v>
       </c>
     </row>
@@ -11061,12 +11226,133 @@
       <c r="C52" t="s">
         <v>731</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>1257</v>
       </c>
     </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>10048</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>10049</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>10050</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>10051</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>10052</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>10053</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>10054</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>10055</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>